--- a/icd_files/87743.xlsx
+++ b/icd_files/87743.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF405C58-456F-4CE6-AE63-CA2DC67E5051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8824A4-EA4C-4573-BB92-0BC0832C5955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1092">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -2331,28 +2331,268 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
     <t>NS (Mini Bag Plus)</t>
   </si>
   <si>
-    <t>5% Dextrose</t>
-  </si>
-  <si>
     <t>Metoprolol Tartrate</t>
   </si>
   <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Doxycycline Hyclate</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Gammagard Liquid</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Labetalol</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>HydrALAzine</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Artificial Tear Ointment</t>
+  </si>
+  <si>
+    <t>MethylPREDNISolone Sodium Succ</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Albuterol Inhaler</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>Miconazole Powder 2%</t>
+  </si>
+  <si>
+    <t>Norepinephrine</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Chlorhexidine Gluconate 0.12% Oral Rinse</t>
+  </si>
+  <si>
+    <t>Scopolamine Patch</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Nitroglycerin Ointment  2%</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Ampicillin Sodium</t>
+  </si>
+  <si>
+    <t>Baclofen</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Sertraline</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Soln</t>
+  </si>
+  <si>
+    <t>Clopidogrel</t>
+  </si>
+  <si>
+    <t>Silver Nitrate Applicator</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Citalopram Hydrobromide</t>
+  </si>
+  <si>
+    <t>Hyoscyamine</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Metoclopramide</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide MDI</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>50 TAB</t>
   </si>
   <si>
+    <t>30 VIAL</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>1 PKT</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>37.5 TAB</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>250 mL</t>
+  </si>
+  <si>
     <t>100 mL</t>
   </si>
   <si>
-    <t>100 BAG</t>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>4 INH</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>2.5 mL</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
   </si>
   <si>
     <t>500 mL</t>
@@ -2385,6 +2625,12 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>8 AMP</t>
+  </si>
+  <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -2400,7 +2646,10 @@
     <t>16:35</t>
   </si>
   <si>
-    <t>250 mL</t>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>15 UDCUP</t>
   </si>
   <si>
     <t>08:26</t>
@@ -2412,6 +2661,18 @@
     <t>16:37</t>
   </si>
   <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>350 mL</t>
+  </si>
+  <si>
+    <t>35 mL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
     <t>01:31</t>
   </si>
   <si>
@@ -2427,6 +2688,9 @@
     <t>20:47</t>
   </si>
   <si>
+    <t>12.5 TAB</t>
+  </si>
+  <si>
     <t>01:14</t>
   </si>
   <si>
@@ -2442,6 +2706,12 @@
     <t>20:14</t>
   </si>
   <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
     <t>00:28</t>
   </si>
   <si>
@@ -2460,7 +2730,7 @@
     <t>20:04</t>
   </si>
   <si>
-    <t>100 TAB</t>
+    <t>10 SUPP</t>
   </si>
   <si>
     <t>01:08</t>
@@ -2481,6 +2751,15 @@
     <t>21:41</t>
   </si>
   <si>
+    <t>75 TAB</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>00:30</t>
   </si>
   <si>
@@ -2502,6 +2781,9 @@
     <t>20:08</t>
   </si>
   <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
     <t>04:03</t>
   </si>
   <si>
@@ -2514,7 +2796,7 @@
     <t>20:13</t>
   </si>
   <si>
-    <t>1000 mL</t>
+    <t>6 INH</t>
   </si>
   <si>
     <t>00:08</t>
@@ -2568,6 +2850,9 @@
     <t>00:27</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>00:04</t>
   </si>
   <si>
@@ -2613,15 +2898,27 @@
     <t>17:26</t>
   </si>
   <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
+    <t>2 STCK</t>
+  </si>
+  <si>
     <t>05:07</t>
   </si>
   <si>
     <t>21:22</t>
   </si>
   <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>1-2 TAB</t>
+  </si>
+  <si>
     <t>00:09</t>
   </si>
   <si>
@@ -2634,6 +2931,12 @@
     <t>12:14</t>
   </si>
   <si>
+    <t>2 PKT</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
     <t>04:30</t>
   </si>
   <si>
@@ -2646,6 +2949,9 @@
     <t>20:20</t>
   </si>
   <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
     <t>16:43</t>
   </si>
   <si>
@@ -2658,10 +2964,16 @@
     <t>20:30</t>
   </si>
   <si>
+    <t>0.125 TAB</t>
+  </si>
+  <si>
     <t>04:20</t>
   </si>
   <si>
     <t>08:44</t>
+  </si>
+  <si>
+    <t>60 UDCUP</t>
   </si>
   <si>
     <t>00:02</t>
@@ -9329,7 +9641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000000-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13420,7 +13732,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000001-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17511,7 +17823,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000002-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21866,7 +22178,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000003-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -26194,7 +26506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000004-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -28977,7 +29289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000005-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -31239,7 +31551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000006-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -33531,7 +33843,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000007-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -35796,7 +36108,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000008-F985-4317-BF3B-628DDFC1DE6E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -36239,7 +36551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC7FC8F-662B-405E-8BD0-56D56102CF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499DE854-0156-4A30-86BD-489DC9802D59}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -36264,7 +36576,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>897</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -36277,7 +36589,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>898</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -36290,7 +36602,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>899</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -36303,7 +36615,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>900</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -36316,27 +36628,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>901</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>902</v>
+        <v>1006</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>903</v>
+        <v>1007</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>904</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>905</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -36364,7 +36676,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>906</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -36392,11 +36704,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>907</v>
+        <v>1011</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>908</v>
+        <v>1012</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -36419,7 +36731,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>908</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36456,7 +36768,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>909</v>
+        <v>1013</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -36479,14 +36791,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>909</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>910</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -36509,14 +36821,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>910</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>911</v>
+        <v>1015</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -36539,14 +36851,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>911</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>912</v>
+        <v>1016</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -36569,14 +36881,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>912</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>913</v>
+        <v>1017</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -36599,16 +36911,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>913</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>914</v>
+        <v>1018</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>915</v>
+        <v>1019</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -36631,14 +36943,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>915</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>916</v>
+        <v>1020</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -36661,10 +36973,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>916</v>
+        <v>1020</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>917</v>
+        <v>1021</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -36672,7 +36984,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>918</v>
+        <v>1022</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -36684,7 +36996,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>919</v>
+        <v>1023</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -36707,7 +37019,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>919</v>
+        <v>1023</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -36723,11 +37035,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>920</v>
+        <v>1024</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>921</v>
+        <v>1025</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -36750,7 +37062,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>921</v>
+        <v>1025</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -36768,7 +37080,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>922</v>
+        <v>1026</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -36791,7 +37103,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>922</v>
+        <v>1026</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -36810,7 +37122,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>923</v>
+        <v>1027</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -36833,10 +37145,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>923</v>
+        <v>1027</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>924</v>
+        <v>1028</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -36854,7 +37166,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>925</v>
+        <v>1029</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -36877,52 +37189,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>925</v>
+        <v>1029</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>926</v>
+        <v>1030</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>929</v>
+        <v>1033</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>930</v>
+        <v>1034</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>938</v>
+        <v>1042</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>939</v>
+        <v>1043</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -36945,53 +37257,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>939</v>
+        <v>1043</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>946</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>926</v>
+        <v>1030</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -37014,43 +37326,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>926</v>
+        <v>1030</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -37058,7 +37370,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -37081,43 +37393,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -37125,7 +37437,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -37148,43 +37460,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -37192,7 +37504,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>929</v>
+        <v>1033</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -37215,43 +37527,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>929</v>
+        <v>1033</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -37259,7 +37571,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>930</v>
+        <v>1034</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -37282,43 +37594,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>930</v>
+        <v>1034</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -37326,7 +37638,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -37349,43 +37661,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -37393,7 +37705,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -37416,43 +37728,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -37460,7 +37772,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -37483,43 +37795,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -37527,7 +37839,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -37550,43 +37862,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -37594,7 +37906,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -37617,43 +37929,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -37661,7 +37973,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -37684,43 +37996,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -37728,7 +38040,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -37751,7 +38063,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -37764,10 +38076,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -37775,7 +38087,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -37798,14 +38110,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>948</v>
+        <v>1052</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -37820,7 +38132,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -37843,7 +38155,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -37863,7 +38175,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -37886,7 +38198,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -37906,7 +38218,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -37929,7 +38241,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -37947,11 +38259,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>952</v>
+        <v>1056</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>953</v>
+        <v>1057</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -37974,14 +38286,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>953</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -38004,14 +38316,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -38034,14 +38346,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -38064,14 +38376,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -38094,14 +38406,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -38124,14 +38436,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -38154,10 +38466,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>954</v>
+        <v>1058</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -38174,7 +38486,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -38197,7 +38509,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -38215,7 +38527,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -38238,7 +38550,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -38256,7 +38568,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -38279,14 +38591,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -38309,14 +38621,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>955</v>
+        <v>1059</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -38339,24 +38651,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>955</v>
+        <v>1059</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>956</v>
+        <v>1060</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>957</v>
+        <v>1061</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>958</v>
+        <v>1062</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -38379,7 +38691,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>958</v>
+        <v>1062</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -38388,7 +38700,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>959</v>
+        <v>1063</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -38411,14 +38723,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>959</v>
+        <v>1063</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>960</v>
+        <v>1064</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -38426,7 +38738,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>961</v>
+        <v>1065</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -38449,7 +38761,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>961</v>
+        <v>1065</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -38458,7 +38770,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>962</v>
+        <v>1066</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -38481,14 +38793,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>962</v>
+        <v>1066</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>963</v>
+        <v>1067</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -38496,7 +38808,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>964</v>
+        <v>1068</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -38519,7 +38831,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>964</v>
+        <v>1068</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -38528,7 +38840,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>965</v>
+        <v>1069</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -38551,24 +38863,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>965</v>
+        <v>1069</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>966</v>
+        <v>1070</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>967</v>
+        <v>1071</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>968</v>
+        <v>1072</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -38591,7 +38903,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>968</v>
+        <v>1072</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -38600,7 +38912,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -38623,22 +38935,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>970</v>
+        <v>1074</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -38646,7 +38958,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>971</v>
+        <v>1075</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -38669,7 +38981,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>971</v>
+        <v>1075</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -38682,7 +38994,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>972</v>
+        <v>1076</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -38705,32 +39017,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>972</v>
+        <v>1076</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>973</v>
+        <v>1077</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>974</v>
+        <v>1078</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>975</v>
+        <v>1079</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -38753,7 +39065,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>975</v>
+        <v>1079</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -38762,7 +39074,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>976</v>
+        <v>1080</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -38785,14 +39097,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>976</v>
+        <v>1080</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>977</v>
+        <v>1081</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -38800,7 +39112,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>978</v>
+        <v>1082</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -38823,14 +39135,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>978</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>979</v>
+        <v>1083</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -38853,12 +39165,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>979</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>980</v>
+        <v>1084</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -38886,7 +39198,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>981</v>
+        <v>1085</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -38913,13 +39225,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>982</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>983</v>
+        <v>1087</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -38947,7 +39259,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>984</v>
+        <v>1088</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -39059,7 +39371,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>985</v>
+        <v>1089</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -39087,7 +39399,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>986</v>
+        <v>1090</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -39115,7 +39427,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>987</v>
+        <v>1091</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -55735,13 +56047,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:GS38"/>
+  <dimension ref="A30:HP93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:201" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>733</v>
       </c>
@@ -55749,12 +56061,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="31" spans="1:201" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:224" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>735</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>736</v>
@@ -55784,2373 +56096,3725 @@
         <v>736</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="AV31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BE31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BF31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="BR31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="BY31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="CI31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="DA31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="DD31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CQ31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CR31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CT31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CU31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CV31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CW31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CX31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CY31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CZ31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="DA31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="DB31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="DQ31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DC31" s="1" t="s">
+      <c r="DR31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DD31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DE31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DF31" s="1" t="s">
+      <c r="DU31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DG31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DH31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DI31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DJ31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DK31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DL31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DM31" s="1" t="s">
+      <c r="EB31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DN31" s="1" t="s">
+      <c r="EC31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DO31" s="1" t="s">
+      <c r="ED31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DP31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DQ31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DR31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DS31" s="1" t="s">
+      <c r="EH31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DT31" s="1" t="s">
+      <c r="EI31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DU31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DV31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DW31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DX31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DY31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DZ31" s="1" t="s">
+      <c r="EO31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="EA31" s="1" t="s">
+      <c r="EP31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="EB31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="EC31" s="1" t="s">
+      <c r="ER31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="ED31" s="1" t="s">
+      <c r="ES31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EE31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EF31" s="1" t="s">
+      <c r="EU31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EG31" s="1" t="s">
+      <c r="EV31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EH31" s="1" t="s">
+      <c r="EW31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EI31" s="1" t="s">
+      <c r="EX31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EJ31" s="1" t="s">
+      <c r="EY31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EK31" s="1" t="s">
+      <c r="EZ31" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="FA31" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="FB31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EL31" s="1" t="s">
+      <c r="FC31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EM31" s="1" t="s">
+      <c r="FD31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EN31" s="1" t="s">
+      <c r="FE31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EO31" s="1" t="s">
+      <c r="FF31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EP31" s="1" t="s">
+      <c r="FG31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="EQ31" s="1" t="s">
+      <c r="FH31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="ER31" s="1" t="s">
+      <c r="FI31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="ES31" s="1" t="s">
+      <c r="FJ31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="ET31" s="1" t="s">
+      <c r="FK31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="EU31" s="1" t="s">
+      <c r="FL31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="EV31" s="1" t="s">
+      <c r="FM31" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="FN31" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="FO31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EW31" s="1" t="s">
+      <c r="FP31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EX31" s="1" t="s">
+      <c r="FQ31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EY31" s="1" t="s">
+      <c r="FR31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EZ31" s="1" t="s">
+      <c r="FS31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="FA31" s="1" t="s">
+      <c r="FT31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="FB31" s="1" t="s">
+      <c r="FU31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="FC31" s="1" t="s">
+      <c r="FV31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FD31" s="1" t="s">
+      <c r="FW31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FE31" s="1" t="s">
+      <c r="FX31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FF31" s="1" t="s">
+      <c r="FY31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FG31" s="1" t="s">
+      <c r="FZ31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FH31" s="1" t="s">
+      <c r="GA31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FI31" s="1" t="s">
+      <c r="GB31" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="GC31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FJ31" s="1" t="s">
+      <c r="GD31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FK31" s="1" t="s">
+      <c r="GE31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FL31" s="1" t="s">
+      <c r="GF31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FM31" s="1" t="s">
+      <c r="GG31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FN31" s="1" t="s">
+      <c r="GH31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FO31" s="1" t="s">
+      <c r="GI31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FP31" s="1" t="s">
+      <c r="GJ31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FQ31" s="1" t="s">
+      <c r="GK31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FR31" s="1" t="s">
+      <c r="GL31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FS31" s="1" t="s">
+      <c r="GM31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FT31" s="1" t="s">
+      <c r="GN31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FU31" s="1" t="s">
+      <c r="GO31" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="GP31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FV31" s="1" t="s">
+      <c r="GQ31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FW31" s="1" t="s">
+      <c r="GR31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FX31" s="1" t="s">
+      <c r="GS31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FY31" s="1" t="s">
+      <c r="GT31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FZ31" s="1" t="s">
+      <c r="GU31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="GA31" s="1" t="s">
+      <c r="GV31" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="GW31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GB31" s="1" t="s">
+      <c r="GX31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GC31" s="1" t="s">
+      <c r="GY31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GD31" s="1" t="s">
+      <c r="GZ31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GE31" s="1" t="s">
+      <c r="HA31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GF31" s="1" t="s">
+      <c r="HB31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GG31" s="1" t="s">
+      <c r="HC31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GH31" s="1" t="s">
+      <c r="HD31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GI31" s="1" t="s">
+      <c r="HE31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GJ31" s="1" t="s">
+      <c r="HF31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GK31" s="1" t="s">
+      <c r="HG31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GL31" s="1" t="s">
+      <c r="HH31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GM31" s="1" t="s">
+      <c r="HI31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GN31" s="1" t="s">
+      <c r="HJ31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GO31" s="1" t="s">
+      <c r="HK31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GP31" s="1" t="s">
+      <c r="HL31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GQ31" s="1" t="s">
+      <c r="HM31" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="GR31" s="1" t="s">
+      <c r="HN31" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="GS31" s="1" t="s">
+      <c r="HO31" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="32" spans="1:201" x14ac:dyDescent="0.3">
+      <c r="HP31" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="C32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="D32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="E32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="F32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="G32" t="s">
-        <v>778</v>
+        <v>827</v>
       </c>
       <c r="H32" t="s">
-        <v>781</v>
+        <v>827</v>
       </c>
       <c r="I32" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="J32" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="K32" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="L32" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="M32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="N32" t="s">
-        <v>787</v>
+        <v>827</v>
       </c>
       <c r="O32" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="P32" t="s">
-        <v>789</v>
+        <v>858</v>
       </c>
       <c r="Q32" t="s">
-        <v>791</v>
+        <v>861</v>
       </c>
       <c r="R32" t="s">
-        <v>786</v>
+        <v>862</v>
       </c>
       <c r="S32" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="T32" t="s">
-        <v>787</v>
+        <v>865</v>
       </c>
       <c r="U32" t="s">
-        <v>793</v>
+        <v>866</v>
       </c>
       <c r="V32" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="W32" t="s">
-        <v>795</v>
+        <v>869</v>
       </c>
       <c r="X32" t="s">
-        <v>786</v>
+        <v>870</v>
       </c>
       <c r="Y32" t="s">
-        <v>772</v>
+        <v>871</v>
       </c>
       <c r="Z32" t="s">
-        <v>796</v>
+        <v>873</v>
       </c>
       <c r="AA32" t="s">
-        <v>797</v>
+        <v>866</v>
       </c>
       <c r="AB32" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="AC32" t="s">
-        <v>794</v>
+        <v>869</v>
       </c>
       <c r="AD32" t="s">
-        <v>799</v>
+        <v>876</v>
       </c>
       <c r="AE32" t="s">
-        <v>800</v>
+        <v>877</v>
       </c>
       <c r="AF32" t="s">
-        <v>801</v>
+        <v>878</v>
       </c>
       <c r="AG32" t="s">
-        <v>787</v>
+        <v>866</v>
       </c>
       <c r="AH32" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="AI32" t="s">
-        <v>803</v>
+        <v>883</v>
       </c>
       <c r="AJ32" t="s">
-        <v>804</v>
+        <v>884</v>
       </c>
       <c r="AK32" t="s">
-        <v>805</v>
+        <v>885</v>
       </c>
       <c r="AL32" t="s">
-        <v>772</v>
+        <v>877</v>
       </c>
       <c r="AM32" t="s">
-        <v>806</v>
+        <v>886</v>
       </c>
       <c r="AN32" t="s">
-        <v>808</v>
+        <v>887</v>
       </c>
       <c r="AO32" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="AP32" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="AQ32" t="s">
-        <v>810</v>
+        <v>869</v>
       </c>
       <c r="AR32" t="s">
-        <v>811</v>
+        <v>890</v>
       </c>
       <c r="AS32" t="s">
-        <v>772</v>
+        <v>891</v>
       </c>
       <c r="AT32" t="s">
-        <v>772</v>
+        <v>892</v>
       </c>
       <c r="AU32" t="s">
-        <v>813</v>
+        <v>893</v>
       </c>
       <c r="AV32" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="AW32" t="s">
-        <v>815</v>
+        <v>896</v>
       </c>
       <c r="AX32" t="s">
-        <v>816</v>
+        <v>898</v>
       </c>
       <c r="AY32" t="s">
-        <v>817</v>
+        <v>899</v>
       </c>
       <c r="AZ32" t="s">
-        <v>818</v>
+        <v>877</v>
       </c>
       <c r="BA32" t="s">
-        <v>819</v>
+        <v>900</v>
       </c>
       <c r="BB32" t="s">
-        <v>820</v>
+        <v>901</v>
       </c>
       <c r="BC32" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="BD32" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="BE32" t="s">
-        <v>824</v>
+        <v>903</v>
       </c>
       <c r="BF32" t="s">
-        <v>825</v>
+        <v>904</v>
       </c>
       <c r="BG32" t="s">
-        <v>772</v>
+        <v>905</v>
       </c>
       <c r="BH32" t="s">
-        <v>826</v>
+        <v>906</v>
       </c>
       <c r="BI32" t="s">
+        <v>907</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>908</v>
+      </c>
+      <c r="BK32" t="s">
         <v>827</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>794</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>828</v>
-      </c>
       <c r="BL32" t="s">
-        <v>829</v>
+        <v>912</v>
       </c>
       <c r="BM32" t="s">
-        <v>772</v>
+        <v>913</v>
       </c>
       <c r="BN32" t="s">
-        <v>772</v>
+        <v>914</v>
       </c>
       <c r="BO32" t="s">
-        <v>831</v>
+        <v>916</v>
       </c>
       <c r="BP32" t="s">
-        <v>832</v>
+        <v>917</v>
       </c>
       <c r="BQ32" t="s">
+        <v>918</v>
+      </c>
+      <c r="BR32" t="s">
         <v>827</v>
       </c>
-      <c r="BR32" t="s">
-        <v>794</v>
-      </c>
       <c r="BS32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BT32" t="s">
-        <v>833</v>
+        <v>920</v>
       </c>
       <c r="BU32" t="s">
-        <v>772</v>
+        <v>921</v>
       </c>
       <c r="BV32" t="s">
-        <v>834</v>
+        <v>877</v>
       </c>
       <c r="BW32" t="s">
-        <v>835</v>
+        <v>922</v>
       </c>
       <c r="BX32" t="s">
-        <v>836</v>
+        <v>923</v>
       </c>
       <c r="BY32" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="BZ32" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="CA32" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="CB32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="CC32" t="s">
-        <v>787</v>
+        <v>925</v>
       </c>
       <c r="CD32" t="s">
-        <v>838</v>
+        <v>926</v>
       </c>
       <c r="CE32" t="s">
-        <v>839</v>
+        <v>921</v>
       </c>
       <c r="CF32" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="CG32" t="s">
-        <v>841</v>
+        <v>922</v>
       </c>
       <c r="CH32" t="s">
-        <v>772</v>
+        <v>927</v>
       </c>
       <c r="CI32" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="CJ32" t="s">
-        <v>843</v>
+        <v>928</v>
       </c>
       <c r="CK32" t="s">
-        <v>802</v>
+        <v>929</v>
       </c>
       <c r="CL32" t="s">
-        <v>844</v>
+        <v>930</v>
       </c>
       <c r="CM32" t="s">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="CN32" t="s">
-        <v>845</v>
+        <v>931</v>
       </c>
       <c r="CO32" t="s">
-        <v>772</v>
+        <v>866</v>
       </c>
       <c r="CP32" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="CQ32" t="s">
-        <v>787</v>
+        <v>869</v>
       </c>
       <c r="CR32" t="s">
+        <v>932</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>933</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>934</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>935</v>
+      </c>
+      <c r="CV32" t="s">
         <v>827</v>
       </c>
-      <c r="CS32" t="s">
-        <v>794</v>
-      </c>
-      <c r="CT32" t="s">
-        <v>828</v>
-      </c>
-      <c r="CU32" t="s">
-        <v>786</v>
-      </c>
-      <c r="CV32" t="s">
-        <v>847</v>
-      </c>
       <c r="CW32" t="s">
-        <v>787</v>
+        <v>936</v>
       </c>
       <c r="CX32" t="s">
+        <v>937</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>890</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>938</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>922</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>939</v>
+      </c>
+      <c r="DC32" t="s">
         <v>827</v>
       </c>
-      <c r="CY32" t="s">
-        <v>794</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>828</v>
-      </c>
-      <c r="DA32" t="s">
-        <v>786</v>
-      </c>
-      <c r="DB32" t="s">
-        <v>772</v>
-      </c>
-      <c r="DC32" t="s">
-        <v>848</v>
-      </c>
       <c r="DD32" t="s">
-        <v>849</v>
+        <v>940</v>
       </c>
       <c r="DE32" t="s">
-        <v>793</v>
+        <v>869</v>
       </c>
       <c r="DF32" t="s">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="DG32" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="DH32" t="s">
-        <v>852</v>
+        <v>922</v>
       </c>
       <c r="DI32" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="DJ32" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="DK32" t="s">
-        <v>855</v>
+        <v>941</v>
       </c>
       <c r="DL32" t="s">
-        <v>794</v>
+        <v>869</v>
       </c>
       <c r="DM32" t="s">
-        <v>856</v>
+        <v>921</v>
       </c>
       <c r="DN32" t="s">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="DO32" t="s">
-        <v>772</v>
+        <v>922</v>
       </c>
       <c r="DP32" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="DQ32" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="DR32" t="s">
+        <v>943</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>944</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>876</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>945</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>946</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>947</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>948</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>949</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>950</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>877</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>951</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>952</v>
+      </c>
+      <c r="ED32" t="s">
         <v>827</v>
       </c>
-      <c r="DS32" t="s">
-        <v>794</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>828</v>
-      </c>
-      <c r="DU32" t="s">
-        <v>786</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>772</v>
-      </c>
-      <c r="DW32" t="s">
-        <v>772</v>
-      </c>
-      <c r="DX32" t="s">
-        <v>787</v>
-      </c>
-      <c r="DY32" t="s">
-        <v>821</v>
-      </c>
-      <c r="DZ32" t="s">
-        <v>860</v>
-      </c>
-      <c r="EA32" t="s">
-        <v>861</v>
-      </c>
-      <c r="EB32" t="s">
-        <v>862</v>
-      </c>
-      <c r="EC32" t="s">
-        <v>786</v>
-      </c>
-      <c r="ED32" t="s">
-        <v>772</v>
-      </c>
       <c r="EE32" t="s">
-        <v>772</v>
+        <v>953</v>
       </c>
       <c r="EF32" t="s">
-        <v>787</v>
+        <v>954</v>
       </c>
       <c r="EG32" t="s">
+        <v>921</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>877</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>922</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>866</v>
+      </c>
+      <c r="EK32" t="s">
         <v>827</v>
       </c>
-      <c r="EH32" t="s">
-        <v>794</v>
-      </c>
-      <c r="EI32" t="s">
-        <v>828</v>
-      </c>
-      <c r="EJ32" t="s">
-        <v>863</v>
-      </c>
-      <c r="EK32" t="s">
-        <v>772</v>
-      </c>
       <c r="EL32" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="EM32" t="s">
+        <v>869</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>914</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>955</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>956</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>957</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>866</v>
+      </c>
+      <c r="ES32" t="s">
         <v>827</v>
       </c>
-      <c r="EN32" t="s">
-        <v>794</v>
-      </c>
-      <c r="EO32" t="s">
-        <v>865</v>
-      </c>
-      <c r="EP32" t="s">
+      <c r="ET32" t="s">
+        <v>827</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>827</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>827</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>869</v>
+      </c>
+      <c r="EX32" t="s">
+        <v>921</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>877</v>
+      </c>
+      <c r="EZ32" t="s">
+        <v>922</v>
+      </c>
+      <c r="FA32" t="s">
+        <v>959</v>
+      </c>
+      <c r="FB32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FC32" t="s">
+        <v>961</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>921</v>
+      </c>
+      <c r="FE32" t="s">
+        <v>877</v>
+      </c>
+      <c r="FF32" t="s">
+        <v>962</v>
+      </c>
+      <c r="FG32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FH32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FI32" t="s">
+        <v>965</v>
+      </c>
+      <c r="FJ32" t="s">
+        <v>966</v>
+      </c>
+      <c r="FK32" t="s">
+        <v>967</v>
+      </c>
+      <c r="FL32" t="s">
+        <v>968</v>
+      </c>
+      <c r="FM32" t="s">
+        <v>922</v>
+      </c>
+      <c r="FN32" t="s">
+        <v>952</v>
+      </c>
+      <c r="FO32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>936</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>971</v>
+      </c>
+      <c r="FR32" t="s">
+        <v>972</v>
+      </c>
+      <c r="FS32" t="s">
+        <v>973</v>
+      </c>
+      <c r="FT32" t="s">
+        <v>922</v>
+      </c>
+      <c r="FU32" t="s">
+        <v>974</v>
+      </c>
+      <c r="FV32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FW32" t="s">
+        <v>965</v>
+      </c>
+      <c r="FX32" t="s">
+        <v>869</v>
+      </c>
+      <c r="FY32" t="s">
+        <v>921</v>
+      </c>
+      <c r="FZ32" t="s">
+        <v>877</v>
+      </c>
+      <c r="GA32" t="s">
+        <v>976</v>
+      </c>
+      <c r="GB32" t="s">
         <v>866</v>
       </c>
-      <c r="EQ32" t="s">
-        <v>867</v>
-      </c>
-      <c r="ER32" t="s">
-        <v>868</v>
-      </c>
-      <c r="ES32" t="s">
-        <v>869</v>
-      </c>
-      <c r="ET32" t="s">
-        <v>828</v>
-      </c>
-      <c r="EU32" t="s">
-        <v>857</v>
-      </c>
-      <c r="EV32" t="s">
-        <v>772</v>
-      </c>
-      <c r="EW32" t="s">
-        <v>842</v>
-      </c>
-      <c r="EX32" t="s">
-        <v>870</v>
-      </c>
-      <c r="EY32" t="s">
-        <v>871</v>
-      </c>
-      <c r="EZ32" t="s">
-        <v>872</v>
-      </c>
-      <c r="FA32" t="s">
-        <v>828</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>873</v>
-      </c>
-      <c r="FC32" t="s">
+      <c r="GC32" t="s">
+        <v>827</v>
+      </c>
+      <c r="GD32" t="s">
+        <v>977</v>
+      </c>
+      <c r="GE32" t="s">
+        <v>921</v>
+      </c>
+      <c r="GF32" t="s">
+        <v>973</v>
+      </c>
+      <c r="GG32" t="s">
+        <v>978</v>
+      </c>
+      <c r="GH32" t="s">
+        <v>979</v>
+      </c>
+      <c r="GI32" t="s">
+        <v>827</v>
+      </c>
+      <c r="GJ32" t="s">
+        <v>943</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>981</v>
+      </c>
+      <c r="GL32" t="s">
+        <v>982</v>
+      </c>
+      <c r="GM32" t="s">
+        <v>877</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>900</v>
+      </c>
+      <c r="GO32" t="s">
         <v>866</v>
       </c>
-      <c r="FD32" t="s">
-        <v>787</v>
-      </c>
-      <c r="FE32" t="s">
+      <c r="GP32" t="s">
         <v>827</v>
       </c>
-      <c r="FF32" t="s">
-        <v>794</v>
-      </c>
-      <c r="FG32" t="s">
-        <v>874</v>
-      </c>
-      <c r="FH32" t="s">
-        <v>786</v>
-      </c>
-      <c r="FI32" t="s">
-        <v>772</v>
-      </c>
-      <c r="FJ32" t="s">
-        <v>875</v>
-      </c>
-      <c r="FK32" t="s">
+      <c r="GQ32" t="s">
+        <v>984</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>985</v>
+      </c>
+      <c r="GS32" t="s">
+        <v>986</v>
+      </c>
+      <c r="GT32" t="s">
+        <v>987</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>988</v>
+      </c>
+      <c r="GV32" t="s">
+        <v>989</v>
+      </c>
+      <c r="GW32" t="s">
         <v>827</v>
       </c>
-      <c r="FL32" t="s">
-        <v>872</v>
-      </c>
-      <c r="FM32" t="s">
-        <v>876</v>
-      </c>
-      <c r="FN32" t="s">
+      <c r="GX32" t="s">
+        <v>827</v>
+      </c>
+      <c r="GY32" t="s">
+        <v>991</v>
+      </c>
+      <c r="GZ32" t="s">
+        <v>977</v>
+      </c>
+      <c r="HA32" t="s">
+        <v>992</v>
+      </c>
+      <c r="HB32" t="s">
+        <v>993</v>
+      </c>
+      <c r="HC32" t="s">
+        <v>994</v>
+      </c>
+      <c r="HD32" t="s">
+        <v>866</v>
+      </c>
+      <c r="HE32" t="s">
+        <v>827</v>
+      </c>
+      <c r="HF32" t="s">
+        <v>995</v>
+      </c>
+      <c r="HG32" t="s">
+        <v>996</v>
+      </c>
+      <c r="HH32" t="s">
+        <v>955</v>
+      </c>
+      <c r="HI32" t="s">
         <v>877</v>
       </c>
-      <c r="FO32" t="s">
-        <v>848</v>
-      </c>
-      <c r="FP32" t="s">
-        <v>878</v>
-      </c>
-      <c r="FQ32" t="s">
-        <v>879</v>
-      </c>
-      <c r="FR32" t="s">
-        <v>794</v>
-      </c>
-      <c r="FS32" t="s">
-        <v>810</v>
-      </c>
-      <c r="FT32" t="s">
-        <v>786</v>
-      </c>
-      <c r="FU32" t="s">
-        <v>880</v>
-      </c>
-      <c r="FV32" t="s">
-        <v>881</v>
-      </c>
-      <c r="FW32" t="s">
-        <v>882</v>
-      </c>
-      <c r="FX32" t="s">
-        <v>883</v>
-      </c>
-      <c r="FY32" t="s">
-        <v>884</v>
-      </c>
-      <c r="FZ32" t="s">
-        <v>885</v>
-      </c>
-      <c r="GA32" t="s">
-        <v>772</v>
-      </c>
-      <c r="GB32" t="s">
-        <v>772</v>
-      </c>
-      <c r="GC32" t="s">
-        <v>887</v>
-      </c>
-      <c r="GD32" t="s">
-        <v>875</v>
-      </c>
-      <c r="GE32" t="s">
-        <v>888</v>
-      </c>
-      <c r="GF32" t="s">
-        <v>889</v>
-      </c>
-      <c r="GG32" t="s">
-        <v>890</v>
-      </c>
-      <c r="GH32" t="s">
-        <v>786</v>
-      </c>
-      <c r="GI32" t="s">
-        <v>772</v>
-      </c>
-      <c r="GJ32" t="s">
-        <v>891</v>
-      </c>
-      <c r="GK32" t="s">
-        <v>892</v>
-      </c>
-      <c r="GL32" t="s">
-        <v>860</v>
-      </c>
-      <c r="GM32" t="s">
-        <v>794</v>
-      </c>
-      <c r="GN32" t="s">
-        <v>893</v>
-      </c>
-      <c r="GO32" t="s">
-        <v>894</v>
-      </c>
-      <c r="GP32" t="s">
-        <v>895</v>
-      </c>
-      <c r="GQ32" t="s">
-        <v>896</v>
-      </c>
-      <c r="GR32" t="s">
+      <c r="HJ32" t="s">
+        <v>997</v>
+      </c>
+      <c r="HK32" t="s">
+        <v>998</v>
+      </c>
+      <c r="HL32" t="s">
+        <v>999</v>
+      </c>
+      <c r="HM32" t="s">
         <v>827</v>
       </c>
-      <c r="GS32" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:201" x14ac:dyDescent="0.3">
+      <c r="HN32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="HO32" t="s">
+        <v>921</v>
+      </c>
+      <c r="HP32" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="G33" t="s">
-        <v>779</v>
-      </c>
-      <c r="H33" t="s">
-        <v>779</v>
-      </c>
-      <c r="I33" t="s">
-        <v>779</v>
-      </c>
-      <c r="J33" t="s">
-        <v>779</v>
-      </c>
-      <c r="K33" t="s">
-        <v>779</v>
-      </c>
-      <c r="L33" t="s">
-        <v>779</v>
-      </c>
-      <c r="M33" t="s">
-        <v>779</v>
-      </c>
-      <c r="N33" t="s">
-        <v>779</v>
-      </c>
-      <c r="O33" t="s">
-        <v>779</v>
-      </c>
       <c r="P33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="Q33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="R33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="S33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="T33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="U33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="V33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="W33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="X33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>859</v>
       </c>
       <c r="Z33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AB33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AG33" t="s">
-        <v>779</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AI33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AK33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>859</v>
       </c>
       <c r="AM33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="AN33" t="s">
-        <v>779</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AR33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>859</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>859</v>
       </c>
       <c r="AU33" t="s">
-        <v>779</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AW33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="AX33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AY33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AZ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BB33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BG33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BI33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BJ33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BL33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>859</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>859</v>
       </c>
       <c r="BO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BS33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BT33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>859</v>
       </c>
       <c r="BV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BX33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="CC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CG33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>859</v>
       </c>
       <c r="CJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CK33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="CL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CN33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>859</v>
       </c>
       <c r="CP33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="CQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CS33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CT33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CU33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CX33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CY33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="CZ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DA33" t="s">
-        <v>779</v>
-      </c>
-      <c r="DC33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>859</v>
       </c>
       <c r="DD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DG33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DI33" t="s">
-        <v>779</v>
-      </c>
-      <c r="DJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DN33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>859</v>
       </c>
       <c r="DP33" t="s">
-        <v>779</v>
-      </c>
-      <c r="DQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DS33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DT33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DU33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DX33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DY33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>859</v>
       </c>
       <c r="EA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EB33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EC33" t="s">
-        <v>807</v>
-      </c>
-      <c r="ED33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EG33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EH33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EI33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EN33" t="s">
-        <v>807</v>
-      </c>
-      <c r="EO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EP33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EQ33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="ER33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="ES33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="ET33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EU33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="EV33" t="s">
+        <v>859</v>
       </c>
       <c r="EW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EX33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="EY33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="EZ33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="FA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FB33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FE33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="FF33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FG33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FI33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="FJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FN33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FQ33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FS33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FT33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FU33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FW33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FX33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FY33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FZ33" t="s">
-        <v>886</v>
+        <v>859</v>
+      </c>
+      <c r="GA33" t="s">
+        <v>859</v>
+      </c>
+      <c r="GB33" t="s">
+        <v>859</v>
       </c>
       <c r="GC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GG33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GL33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="GM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GN33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="GO33" t="s">
-        <v>779</v>
-      </c>
-      <c r="GP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GS33" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:201" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+      <c r="GT33" t="s">
+        <v>897</v>
+      </c>
+      <c r="GU33" t="s">
+        <v>897</v>
+      </c>
+      <c r="GV33" t="s">
+        <v>990</v>
+      </c>
+      <c r="GY33" t="s">
+        <v>859</v>
+      </c>
+      <c r="GZ33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HA33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HB33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HC33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HD33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HF33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HG33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HH33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HI33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HJ33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HK33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HL33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HN33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HO33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HP33" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="G34" t="s">
-        <v>780</v>
-      </c>
-      <c r="H34" t="s">
-        <v>780</v>
-      </c>
-      <c r="I34" t="s">
-        <v>783</v>
-      </c>
-      <c r="J34" t="s">
-        <v>780</v>
-      </c>
-      <c r="K34" t="s">
-        <v>780</v>
-      </c>
-      <c r="L34" t="s">
-        <v>780</v>
-      </c>
-      <c r="M34" t="s">
-        <v>780</v>
-      </c>
-      <c r="N34" t="s">
-        <v>780</v>
-      </c>
-      <c r="O34" t="s">
-        <v>780</v>
-      </c>
       <c r="P34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="Q34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="R34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="S34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="T34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="U34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="V34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="W34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="X34" t="s">
-        <v>780</v>
+        <v>860</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>872</v>
       </c>
       <c r="Z34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="AA34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="AB34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AC34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AD34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AE34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="AF34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="AG34" t="s">
-        <v>790</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AI34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AJ34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AK34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>863</v>
       </c>
       <c r="AM34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="AN34" t="s">
-        <v>790</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AP34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AQ34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AR34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>863</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>863</v>
       </c>
       <c r="AU34" t="s">
-        <v>790</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="AW34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AX34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AY34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="AZ34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BA34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BB34" t="s">
-        <v>790</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>822</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="BE34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="BF34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="BG34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BH34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BI34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BJ34" t="s">
-        <v>790</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BL34" t="s">
-        <v>790</v>
+        <v>872</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>872</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>915</v>
       </c>
       <c r="BO34" t="s">
-        <v>790</v>
+        <v>915</v>
       </c>
       <c r="BP34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BQ34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="BR34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BS34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BT34" t="s">
-        <v>790</v>
+        <v>872</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>872</v>
       </c>
       <c r="BV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BW34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="BX34" t="s">
-        <v>780</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>783</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>783</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>783</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CC34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CD34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CE34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="CF34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CG34" t="s">
-        <v>790</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>780</v>
+        <v>872</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>872</v>
       </c>
       <c r="CJ34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="CK34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="CL34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="CM34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="CN34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>863</v>
       </c>
       <c r="CP34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CQ34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CR34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CS34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CT34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CU34" t="s">
-        <v>790</v>
-      </c>
-      <c r="CV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="CW34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="CX34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="CY34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CZ34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DA34" t="s">
-        <v>783</v>
-      </c>
-      <c r="DC34" t="s">
-        <v>790</v>
+        <v>872</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>872</v>
       </c>
       <c r="DD34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DE34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="DF34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="DG34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DH34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DI34" t="s">
-        <v>790</v>
-      </c>
-      <c r="DJ34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DK34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DL34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DM34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DN34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>863</v>
       </c>
       <c r="DP34" t="s">
-        <v>790</v>
-      </c>
-      <c r="DQ34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DR34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DS34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DT34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DU34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DW34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DX34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DY34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DZ34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="EA34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="EB34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EC34" t="s">
-        <v>822</v>
-      </c>
-      <c r="ED34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EE34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EF34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EG34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EH34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EI34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EJ34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EK34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="EL34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="EM34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="EN34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="EO34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="EP34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="EQ34" t="s">
-        <v>783</v>
+        <v>915</v>
       </c>
       <c r="ER34" t="s">
-        <v>783</v>
+        <v>915</v>
       </c>
       <c r="ES34" t="s">
-        <v>783</v>
+        <v>915</v>
       </c>
       <c r="ET34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EU34" t="s">
-        <v>780</v>
+        <v>915</v>
+      </c>
+      <c r="EV34" t="s">
+        <v>915</v>
       </c>
       <c r="EW34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EX34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EY34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EZ34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="FA34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="FB34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FC34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FD34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FE34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FF34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FG34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FH34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="FI34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="FJ34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FK34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FL34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FM34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="FN34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FO34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FP34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FQ34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FR34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FS34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FT34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FU34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FV34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FW34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FX34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FY34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FZ34" t="s">
-        <v>780</v>
+        <v>860</v>
+      </c>
+      <c r="GA34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GB34" t="s">
+        <v>860</v>
       </c>
       <c r="GC34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GD34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GE34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GF34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GG34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="GH34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GJ34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GK34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GL34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GM34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GN34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GO34" t="s">
-        <v>783</v>
-      </c>
-      <c r="GP34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GQ34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GR34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GS34" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="35" spans="1:201" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+      <c r="GT34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GU34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GV34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GY34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GZ34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HA34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HB34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HC34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HD34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HF34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HG34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HH34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HI34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HJ34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HK34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HL34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HN34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HO34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HP34" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="36" spans="1:201" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C36" t="s">
-        <v>774</v>
-      </c>
-      <c r="D36" t="s">
-        <v>775</v>
-      </c>
-      <c r="E36" t="s">
-        <v>776</v>
-      </c>
-      <c r="F36" t="s">
-        <v>777</v>
-      </c>
-      <c r="M36" t="s">
-        <v>774</v>
-      </c>
-      <c r="S36" t="s">
-        <v>792</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>777</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>776</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>775</v>
-      </c>
-      <c r="DB36" t="s">
-        <v>777</v>
+      <c r="BY36" t="s">
+        <v>850</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>857</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>850</v>
       </c>
       <c r="ED36" t="s">
-        <v>776</v>
-      </c>
-      <c r="EE36" t="s">
-        <v>776</v>
-      </c>
-      <c r="GI36" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:201" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+      <c r="EK36" t="s">
+        <v>850</v>
+      </c>
+      <c r="EL36" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW36" t="s">
+        <v>850</v>
+      </c>
+      <c r="GX36" t="s">
+        <v>850</v>
+      </c>
+      <c r="HE36" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="BM37" t="s">
-        <v>830</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>830</v>
-      </c>
-      <c r="BU37" t="s">
-        <v>830</v>
-      </c>
-      <c r="CH37" t="s">
-        <v>777</v>
-      </c>
-      <c r="CO37" t="s">
-        <v>830</v>
-      </c>
-      <c r="DO37" t="s">
-        <v>830</v>
-      </c>
-      <c r="DV37" t="s">
-        <v>830</v>
-      </c>
-      <c r="DW37" t="s">
-        <v>830</v>
-      </c>
-      <c r="GA37" t="s">
-        <v>830</v>
-      </c>
-      <c r="GB37" t="s">
-        <v>830</v>
-      </c>
-      <c r="GI37" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="38" spans="1:201" x14ac:dyDescent="0.3">
+      <c r="ES37" t="s">
+        <v>958</v>
+      </c>
+      <c r="ET37" t="s">
+        <v>958</v>
+      </c>
+      <c r="EU37" t="s">
+        <v>958</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>842</v>
+      </c>
+      <c r="E38" t="s">
+        <v>842</v>
+      </c>
+      <c r="F38" t="s">
+        <v>842</v>
+      </c>
+      <c r="G38" t="s">
+        <v>842</v>
+      </c>
+      <c r="H38" t="s">
+        <v>842</v>
+      </c>
+      <c r="I38" t="s">
+        <v>842</v>
+      </c>
+      <c r="J38" t="s">
+        <v>842</v>
+      </c>
+      <c r="K38" t="s">
+        <v>842</v>
+      </c>
+      <c r="L38" t="s">
+        <v>842</v>
+      </c>
+      <c r="M38" t="s">
+        <v>842</v>
+      </c>
+      <c r="N38" t="s">
+        <v>842</v>
+      </c>
+      <c r="O38" t="s">
+        <v>842</v>
+      </c>
+      <c r="ES38" t="s">
+        <v>842</v>
+      </c>
+      <c r="ET38" t="s">
+        <v>842</v>
+      </c>
+      <c r="EU38" t="s">
+        <v>842</v>
+      </c>
+      <c r="EV38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D39" t="s">
+        <v>843</v>
+      </c>
+      <c r="E39" t="s">
+        <v>843</v>
+      </c>
+      <c r="F39" t="s">
+        <v>843</v>
+      </c>
+      <c r="G39" t="s">
+        <v>843</v>
+      </c>
+      <c r="H39" t="s">
+        <v>843</v>
+      </c>
+      <c r="I39" t="s">
+        <v>843</v>
+      </c>
+      <c r="J39" t="s">
+        <v>843</v>
+      </c>
+      <c r="K39" t="s">
+        <v>843</v>
+      </c>
+      <c r="L39" t="s">
+        <v>843</v>
+      </c>
+      <c r="M39" t="s">
+        <v>843</v>
+      </c>
+      <c r="N39" t="s">
+        <v>843</v>
+      </c>
+      <c r="O39" t="s">
+        <v>843</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>843</v>
+      </c>
+      <c r="ES39" t="s">
+        <v>843</v>
+      </c>
+      <c r="ET39" t="s">
+        <v>843</v>
+      </c>
+      <c r="EU39" t="s">
+        <v>843</v>
+      </c>
+      <c r="EV39" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="AS38" t="s">
-        <v>773</v>
-      </c>
-      <c r="AT38" t="s">
+      <c r="B40" t="s">
+        <v>828</v>
+      </c>
+      <c r="C40" t="s">
+        <v>841</v>
+      </c>
+      <c r="D40" t="s">
+        <v>844</v>
+      </c>
+      <c r="E40" t="s">
+        <v>844</v>
+      </c>
+      <c r="F40" t="s">
+        <v>840</v>
+      </c>
+      <c r="G40" t="s">
+        <v>840</v>
+      </c>
+      <c r="H40" t="s">
+        <v>840</v>
+      </c>
+      <c r="I40" t="s">
+        <v>844</v>
+      </c>
+      <c r="J40" t="s">
+        <v>844</v>
+      </c>
+      <c r="K40" t="s">
+        <v>844</v>
+      </c>
+      <c r="L40" t="s">
+        <v>840</v>
+      </c>
+      <c r="M40" t="s">
+        <v>840</v>
+      </c>
+      <c r="N40" t="s">
+        <v>840</v>
+      </c>
+      <c r="O40" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>888</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>828</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>882</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>909</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>841</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>841</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>841</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>841</v>
+      </c>
+      <c r="CP40" t="s">
+        <v>828</v>
+      </c>
+      <c r="ED40" t="s">
+        <v>828</v>
+      </c>
+      <c r="ES40" t="s">
+        <v>841</v>
+      </c>
+      <c r="ET40" t="s">
+        <v>841</v>
+      </c>
+      <c r="EU40" t="s">
+        <v>841</v>
+      </c>
+      <c r="EV40" t="s">
+        <v>841</v>
+      </c>
+      <c r="FO40" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D41" t="s">
+        <v>845</v>
+      </c>
+      <c r="E41" t="s">
+        <v>845</v>
+      </c>
+      <c r="F41" t="s">
+        <v>845</v>
+      </c>
+      <c r="G41" t="s">
+        <v>845</v>
+      </c>
+      <c r="H41" t="s">
+        <v>845</v>
+      </c>
+      <c r="I41" t="s">
+        <v>845</v>
+      </c>
+      <c r="J41" t="s">
+        <v>845</v>
+      </c>
+      <c r="K41" t="s">
+        <v>845</v>
+      </c>
+      <c r="L41" t="s">
+        <v>845</v>
+      </c>
+      <c r="M41" t="s">
+        <v>845</v>
+      </c>
+      <c r="N41" t="s">
+        <v>845</v>
+      </c>
+      <c r="O41" t="s">
+        <v>845</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>845</v>
+      </c>
+      <c r="ES41" t="s">
+        <v>845</v>
+      </c>
+      <c r="ET41" t="s">
+        <v>845</v>
+      </c>
+      <c r="EU41" t="s">
+        <v>845</v>
+      </c>
+      <c r="EV41" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>879</v>
+      </c>
+      <c r="FO42" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="44" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D44" t="s">
+        <v>845</v>
+      </c>
+      <c r="E44" t="s">
+        <v>849</v>
+      </c>
+      <c r="F44" t="s">
+        <v>845</v>
+      </c>
+      <c r="G44" t="s">
+        <v>857</v>
+      </c>
+      <c r="H44" t="s">
+        <v>849</v>
+      </c>
+      <c r="I44" t="s">
+        <v>845</v>
+      </c>
+      <c r="J44" t="s">
+        <v>857</v>
+      </c>
+      <c r="K44" t="s">
+        <v>849</v>
+      </c>
+      <c r="L44" t="s">
+        <v>845</v>
+      </c>
+      <c r="M44" t="s">
+        <v>857</v>
+      </c>
+      <c r="N44" t="s">
+        <v>849</v>
+      </c>
+      <c r="O44" t="s">
+        <v>857</v>
+      </c>
+      <c r="V44" t="s">
+        <v>845</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>857</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>849</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>849</v>
+      </c>
+      <c r="DQ44" t="s">
+        <v>857</v>
+      </c>
+      <c r="HE44" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D49" t="s">
+        <v>846</v>
+      </c>
+      <c r="E49" t="s">
+        <v>846</v>
+      </c>
+      <c r="F49" t="s">
+        <v>846</v>
+      </c>
+      <c r="G49" t="s">
+        <v>846</v>
+      </c>
+      <c r="H49" t="s">
+        <v>846</v>
+      </c>
+      <c r="I49" t="s">
+        <v>846</v>
+      </c>
+      <c r="J49" t="s">
+        <v>846</v>
+      </c>
+      <c r="K49" t="s">
+        <v>846</v>
+      </c>
+      <c r="L49" t="s">
+        <v>846</v>
+      </c>
+      <c r="M49" t="s">
+        <v>846</v>
+      </c>
+      <c r="N49" t="s">
+        <v>846</v>
+      </c>
+      <c r="O49" t="s">
+        <v>846</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B51" t="s">
+        <v>829</v>
+      </c>
+      <c r="C51" t="s">
+        <v>829</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>830</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>902</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B53" t="s">
+        <v>830</v>
+      </c>
+      <c r="C53" t="s">
+        <v>830</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="54" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B54" t="s">
+        <v>831</v>
+      </c>
+      <c r="C54" t="s">
+        <v>831</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="55" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>894</v>
+      </c>
+      <c r="BS56" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="BR57" t="s">
+        <v>919</v>
+      </c>
+      <c r="BS57" t="s">
+        <v>919</v>
+      </c>
+      <c r="GI57" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D58" t="s">
+        <v>847</v>
+      </c>
+      <c r="E58" t="s">
+        <v>847</v>
+      </c>
+      <c r="F58" t="s">
+        <v>847</v>
+      </c>
+      <c r="G58" t="s">
+        <v>847</v>
+      </c>
+      <c r="H58" t="s">
+        <v>847</v>
+      </c>
+      <c r="I58" t="s">
+        <v>847</v>
+      </c>
+      <c r="J58" t="s">
+        <v>847</v>
+      </c>
+      <c r="K58" t="s">
+        <v>847</v>
+      </c>
+      <c r="L58" t="s">
+        <v>847</v>
+      </c>
+      <c r="M58" t="s">
+        <v>847</v>
+      </c>
+      <c r="N58" t="s">
+        <v>847</v>
+      </c>
+      <c r="O58" t="s">
+        <v>847</v>
+      </c>
+      <c r="V58" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>874</v>
+      </c>
+      <c r="FV58" t="s">
+        <v>975</v>
+      </c>
+      <c r="GP58" t="s">
+        <v>847</v>
+      </c>
+      <c r="HM58" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D59" t="s">
+        <v>848</v>
+      </c>
+      <c r="E59" t="s">
+        <v>848</v>
+      </c>
+      <c r="F59" t="s">
+        <v>848</v>
+      </c>
+      <c r="G59" t="s">
+        <v>848</v>
+      </c>
+      <c r="H59" t="s">
+        <v>848</v>
+      </c>
+      <c r="I59" t="s">
+        <v>848</v>
+      </c>
+      <c r="J59" t="s">
+        <v>848</v>
+      </c>
+      <c r="K59" t="s">
+        <v>848</v>
+      </c>
+      <c r="L59" t="s">
+        <v>848</v>
+      </c>
+      <c r="M59" t="s">
+        <v>848</v>
+      </c>
+      <c r="N59" t="s">
+        <v>848</v>
+      </c>
+      <c r="O59" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="60" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D60" t="s">
+        <v>849</v>
+      </c>
+      <c r="E60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F60" t="s">
+        <v>849</v>
+      </c>
+      <c r="G60" t="s">
+        <v>849</v>
+      </c>
+      <c r="H60" t="s">
+        <v>849</v>
+      </c>
+      <c r="I60" t="s">
+        <v>849</v>
+      </c>
+      <c r="J60" t="s">
+        <v>849</v>
+      </c>
+      <c r="K60" t="s">
+        <v>849</v>
+      </c>
+      <c r="L60" t="s">
+        <v>849</v>
+      </c>
+      <c r="M60" t="s">
+        <v>849</v>
+      </c>
+      <c r="N60" t="s">
+        <v>849</v>
+      </c>
+      <c r="O60" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D61" t="s">
+        <v>850</v>
+      </c>
+      <c r="E61" t="s">
+        <v>850</v>
+      </c>
+      <c r="F61" t="s">
+        <v>850</v>
+      </c>
+      <c r="G61" t="s">
+        <v>850</v>
+      </c>
+      <c r="H61" t="s">
+        <v>850</v>
+      </c>
+      <c r="I61" t="s">
+        <v>850</v>
+      </c>
+      <c r="J61" t="s">
+        <v>850</v>
+      </c>
+      <c r="K61" t="s">
+        <v>850</v>
+      </c>
+      <c r="L61" t="s">
+        <v>850</v>
+      </c>
+      <c r="M61" t="s">
+        <v>850</v>
+      </c>
+      <c r="N61" t="s">
+        <v>850</v>
+      </c>
+      <c r="O61" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D62" t="s">
+        <v>849</v>
+      </c>
+      <c r="E62" t="s">
+        <v>849</v>
+      </c>
+      <c r="F62" t="s">
+        <v>849</v>
+      </c>
+      <c r="G62" t="s">
+        <v>849</v>
+      </c>
+      <c r="H62" t="s">
+        <v>849</v>
+      </c>
+      <c r="I62" t="s">
+        <v>849</v>
+      </c>
+      <c r="J62" t="s">
+        <v>849</v>
+      </c>
+      <c r="K62" t="s">
+        <v>849</v>
+      </c>
+      <c r="L62" t="s">
+        <v>849</v>
+      </c>
+      <c r="M62" t="s">
+        <v>849</v>
+      </c>
+      <c r="N62" t="s">
+        <v>849</v>
+      </c>
+      <c r="O62" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="63" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D63" t="s">
+        <v>851</v>
+      </c>
+      <c r="E63" t="s">
+        <v>851</v>
+      </c>
+      <c r="F63" t="s">
+        <v>851</v>
+      </c>
+      <c r="G63" t="s">
+        <v>851</v>
+      </c>
+      <c r="H63" t="s">
+        <v>851</v>
+      </c>
+      <c r="I63" t="s">
+        <v>851</v>
+      </c>
+      <c r="J63" t="s">
+        <v>851</v>
+      </c>
+      <c r="K63" t="s">
+        <v>851</v>
+      </c>
+      <c r="L63" t="s">
+        <v>851</v>
+      </c>
+      <c r="M63" t="s">
+        <v>851</v>
+      </c>
+      <c r="N63" t="s">
+        <v>851</v>
+      </c>
+      <c r="O63" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D64" t="s">
+        <v>852</v>
+      </c>
+      <c r="E64" t="s">
+        <v>852</v>
+      </c>
+      <c r="F64" t="s">
+        <v>852</v>
+      </c>
+      <c r="G64" t="s">
+        <v>852</v>
+      </c>
+      <c r="H64" t="s">
+        <v>852</v>
+      </c>
+      <c r="I64" t="s">
+        <v>852</v>
+      </c>
+      <c r="J64" t="s">
+        <v>852</v>
+      </c>
+      <c r="K64" t="s">
+        <v>852</v>
+      </c>
+      <c r="L64" t="s">
+        <v>852</v>
+      </c>
+      <c r="M64" t="s">
+        <v>852</v>
+      </c>
+      <c r="N64" t="s">
+        <v>852</v>
+      </c>
+      <c r="O64" t="s">
+        <v>852</v>
+      </c>
+      <c r="CI64" t="s">
+        <v>830</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D65" t="s">
+        <v>853</v>
+      </c>
+      <c r="E65" t="s">
+        <v>853</v>
+      </c>
+      <c r="F65" t="s">
+        <v>853</v>
+      </c>
+      <c r="G65" t="s">
+        <v>853</v>
+      </c>
+      <c r="H65" t="s">
+        <v>853</v>
+      </c>
+      <c r="I65" t="s">
+        <v>853</v>
+      </c>
+      <c r="J65" t="s">
+        <v>853</v>
+      </c>
+      <c r="K65" t="s">
+        <v>853</v>
+      </c>
+      <c r="L65" t="s">
+        <v>853</v>
+      </c>
+      <c r="M65" t="s">
+        <v>853</v>
+      </c>
+      <c r="N65" t="s">
+        <v>853</v>
+      </c>
+      <c r="O65" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="66" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D66" t="s">
+        <v>854</v>
+      </c>
+      <c r="E66" t="s">
+        <v>854</v>
+      </c>
+      <c r="F66" t="s">
+        <v>854</v>
+      </c>
+      <c r="G66" t="s">
+        <v>854</v>
+      </c>
+      <c r="H66" t="s">
+        <v>854</v>
+      </c>
+      <c r="I66" t="s">
+        <v>854</v>
+      </c>
+      <c r="J66" t="s">
+        <v>854</v>
+      </c>
+      <c r="K66" t="s">
+        <v>854</v>
+      </c>
+      <c r="L66" t="s">
+        <v>854</v>
+      </c>
+      <c r="M66" t="s">
+        <v>854</v>
+      </c>
+      <c r="N66" t="s">
+        <v>854</v>
+      </c>
+      <c r="O66" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="67" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="V67" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="68" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="V68" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B70" t="s">
+        <v>832</v>
+      </c>
+      <c r="C70" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B71" t="s">
+        <v>833</v>
+      </c>
+      <c r="C71" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B72" t="s">
+        <v>834</v>
+      </c>
+      <c r="C72" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B73" t="s">
+        <v>835</v>
+      </c>
+      <c r="C73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B74" t="s">
+        <v>836</v>
+      </c>
+      <c r="C74" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="75" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B75" t="s">
+        <v>837</v>
+      </c>
+      <c r="C75" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B76" t="s">
+        <v>838</v>
+      </c>
+      <c r="C76" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="77" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B77" t="s">
+        <v>839</v>
+      </c>
+      <c r="C77" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B78" t="s">
+        <v>840</v>
+      </c>
+      <c r="C78" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="CB38" t="s">
-        <v>773</v>
-      </c>
-      <c r="DO38" t="s">
-        <v>773</v>
-      </c>
-      <c r="EV38" t="s">
-        <v>773</v>
+      <c r="D79" t="s">
+        <v>855</v>
+      </c>
+      <c r="E79" t="s">
+        <v>855</v>
+      </c>
+      <c r="F79" t="s">
+        <v>855</v>
+      </c>
+      <c r="G79" t="s">
+        <v>855</v>
+      </c>
+      <c r="H79" t="s">
+        <v>855</v>
+      </c>
+      <c r="I79" t="s">
+        <v>855</v>
+      </c>
+      <c r="J79" t="s">
+        <v>855</v>
+      </c>
+      <c r="K79" t="s">
+        <v>855</v>
+      </c>
+      <c r="L79" t="s">
+        <v>855</v>
+      </c>
+      <c r="M79" t="s">
+        <v>855</v>
+      </c>
+      <c r="N79" t="s">
+        <v>855</v>
+      </c>
+      <c r="O79" t="s">
+        <v>855</v>
+      </c>
+      <c r="HE79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D80" t="s">
+        <v>856</v>
+      </c>
+      <c r="E80" t="s">
+        <v>856</v>
+      </c>
+      <c r="F80" t="s">
+        <v>856</v>
+      </c>
+      <c r="G80" t="s">
+        <v>856</v>
+      </c>
+      <c r="H80" t="s">
+        <v>856</v>
+      </c>
+      <c r="I80" t="s">
+        <v>856</v>
+      </c>
+      <c r="J80" t="s">
+        <v>856</v>
+      </c>
+      <c r="K80" t="s">
+        <v>856</v>
+      </c>
+      <c r="L80" t="s">
+        <v>856</v>
+      </c>
+      <c r="M80" t="s">
+        <v>856</v>
+      </c>
+      <c r="N80" t="s">
+        <v>856</v>
+      </c>
+      <c r="O80" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="81" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="FB81" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="82" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="FB82" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="83" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="FG83" t="s">
+        <v>963</v>
+      </c>
+      <c r="FH83" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="FG84" t="s">
+        <v>849</v>
+      </c>
+      <c r="FH84" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="FO85" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="86" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="FO86" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="GC87" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="88" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="GI88" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="89" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="BY89" t="s">
+        <v>836</v>
+      </c>
+      <c r="BZ89" t="s">
+        <v>836</v>
+      </c>
+      <c r="CA89" t="s">
+        <v>836</v>
+      </c>
+      <c r="CB89" t="s">
+        <v>836</v>
+      </c>
+      <c r="GI89" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="GP90" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="GP91" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="BY92" t="s">
+        <v>924</v>
+      </c>
+      <c r="BZ92" t="s">
+        <v>924</v>
+      </c>
+      <c r="CA92" t="s">
+        <v>924</v>
+      </c>
+      <c r="CB92" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="93" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="DQ93" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/87743.xlsx
+++ b/icd_files/87743.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF405C58-456F-4CE6-AE63-CA2DC67E5051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5800D4B-C7D6-41AE-B628-F8EF04486D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1092">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -2331,28 +2331,268 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>5% Dextrose</t>
+  </si>
+  <si>
+    <t>MetRONIDAZOLE (FLagyl)</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
     <t>NS (Mini Bag Plus)</t>
   </si>
   <si>
-    <t>5% Dextrose</t>
-  </si>
-  <si>
     <t>Metoprolol Tartrate</t>
   </si>
   <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Doxycycline Hyclate</t>
+  </si>
+  <si>
+    <t>0.9% Sodium Chloride</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Gammagard Liquid</t>
+  </si>
+  <si>
+    <t>Thiamine</t>
+  </si>
+  <si>
+    <t>Labetalol</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>HydrALAzine</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Artificial Tear Ointment</t>
+  </si>
+  <si>
+    <t>MethylPREDNISolone Sodium Succ</t>
+  </si>
+  <si>
+    <t>Pantoprazole Sodium</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Acyclovir</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Albuterol Inhaler</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>Miconazole Powder 2%</t>
+  </si>
+  <si>
+    <t>Norepinephrine</t>
+  </si>
+  <si>
+    <t>Heparin Flush (10 units/ml)</t>
+  </si>
+  <si>
+    <t>Chlorhexidine Gluconate 0.12% Oral Rinse</t>
+  </si>
+  <si>
+    <t>Scopolamine Patch</t>
+  </si>
+  <si>
+    <t>CeftriaXONE</t>
+  </si>
+  <si>
+    <t>Nitroglycerin Ointment  2%</t>
+  </si>
+  <si>
+    <t>Docusate Sodium</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide Neb</t>
+  </si>
+  <si>
+    <t>Ampicillin Sodium</t>
+  </si>
+  <si>
+    <t>Baclofen</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Sertraline</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Soln</t>
+  </si>
+  <si>
+    <t>Clopidogrel</t>
+  </si>
+  <si>
+    <t>Silver Nitrate Applicator</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Neutra-Phos</t>
+  </si>
+  <si>
+    <t>Famotidine</t>
+  </si>
+  <si>
+    <t>Citalopram Hydrobromide</t>
+  </si>
+  <si>
+    <t>Hyoscyamine</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>Metoclopramide</t>
+  </si>
+  <si>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Ipratropium Bromide MDI</t>
+  </si>
+  <si>
+    <t>Multivitamins</t>
+  </si>
+  <si>
     <t>00:00</t>
   </si>
   <si>
     <t>50 TAB</t>
   </si>
   <si>
+    <t>30 VIAL</t>
+  </si>
+  <si>
+    <t>20 VIAL</t>
+  </si>
+  <si>
+    <t>50 mL</t>
+  </si>
+  <si>
+    <t>1 PTCH</t>
+  </si>
+  <si>
+    <t>2 BAG</t>
+  </si>
+  <si>
+    <t>1 PKT</t>
+  </si>
+  <si>
+    <t>100 CAP</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>37.5 TAB</t>
+  </si>
+  <si>
     <t>1000 BAG</t>
   </si>
   <si>
+    <t>200 VIAL</t>
+  </si>
+  <si>
+    <t>40 PKT</t>
+  </si>
+  <si>
+    <t>250 mL</t>
+  </si>
+  <si>
     <t>100 mL</t>
   </si>
   <si>
-    <t>100 BAG</t>
+    <t>1000 mL</t>
+  </si>
+  <si>
+    <t>4 INH</t>
+  </si>
+  <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>1 BTL</t>
+  </si>
+  <si>
+    <t>2.5 mL</t>
+  </si>
+  <si>
+    <t>50 VIAL</t>
   </si>
   <si>
     <t>500 mL</t>
@@ -2385,6 +2625,12 @@
     <t>20:00</t>
   </si>
   <si>
+    <t>8 AMP</t>
+  </si>
+  <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
     <t>04:00</t>
   </si>
   <si>
@@ -2400,7 +2646,10 @@
     <t>16:35</t>
   </si>
   <si>
-    <t>250 mL</t>
+    <t>40 BAG</t>
+  </si>
+  <si>
+    <t>15 UDCUP</t>
   </si>
   <si>
     <t>08:26</t>
@@ -2412,6 +2661,18 @@
     <t>16:37</t>
   </si>
   <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>350 mL</t>
+  </si>
+  <si>
+    <t>35 mL</t>
+  </si>
+  <si>
+    <t>100 TAB</t>
+  </si>
+  <si>
     <t>01:31</t>
   </si>
   <si>
@@ -2427,6 +2688,9 @@
     <t>20:47</t>
   </si>
   <si>
+    <t>12.5 TAB</t>
+  </si>
+  <si>
     <t>01:14</t>
   </si>
   <si>
@@ -2442,6 +2706,12 @@
     <t>20:14</t>
   </si>
   <si>
+    <t>1000 VIAL</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
     <t>00:28</t>
   </si>
   <si>
@@ -2460,7 +2730,7 @@
     <t>20:04</t>
   </si>
   <si>
-    <t>100 TAB</t>
+    <t>10 SUPP</t>
   </si>
   <si>
     <t>01:08</t>
@@ -2481,6 +2751,15 @@
     <t>21:41</t>
   </si>
   <si>
+    <t>75 TAB</t>
+  </si>
+  <si>
+    <t>200 mL</t>
+  </si>
+  <si>
+    <t>1 TUBE</t>
+  </si>
+  <si>
     <t>00:30</t>
   </si>
   <si>
@@ -2502,6 +2781,9 @@
     <t>20:08</t>
   </si>
   <si>
+    <t>40 VIAL</t>
+  </si>
+  <si>
     <t>04:03</t>
   </si>
   <si>
@@ -2514,7 +2796,7 @@
     <t>20:13</t>
   </si>
   <si>
-    <t>1000 mL</t>
+    <t>6 INH</t>
   </si>
   <si>
     <t>00:08</t>
@@ -2568,6 +2850,9 @@
     <t>00:27</t>
   </si>
   <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
     <t>00:04</t>
   </si>
   <si>
@@ -2613,15 +2898,27 @@
     <t>17:26</t>
   </si>
   <si>
+    <t>500 BAG</t>
+  </si>
+  <si>
     <t>19:00</t>
   </si>
   <si>
+    <t>2 STCK</t>
+  </si>
+  <si>
     <t>05:07</t>
   </si>
   <si>
     <t>21:22</t>
   </si>
   <si>
+    <t>0.5-1 TAB</t>
+  </si>
+  <si>
+    <t>1-2 TAB</t>
+  </si>
+  <si>
     <t>00:09</t>
   </si>
   <si>
@@ -2634,6 +2931,12 @@
     <t>12:14</t>
   </si>
   <si>
+    <t>2 PKT</t>
+  </si>
+  <si>
+    <t>20 TAB</t>
+  </si>
+  <si>
     <t>04:30</t>
   </si>
   <si>
@@ -2646,6 +2949,9 @@
     <t>20:20</t>
   </si>
   <si>
+    <t>60 PKT</t>
+  </si>
+  <si>
     <t>16:43</t>
   </si>
   <si>
@@ -2658,10 +2964,16 @@
     <t>20:30</t>
   </si>
   <si>
+    <t>0.125 TAB</t>
+  </si>
+  <si>
     <t>04:20</t>
   </si>
   <si>
     <t>08:44</t>
+  </si>
+  <si>
+    <t>60 UDCUP</t>
   </si>
   <si>
     <t>00:02</t>
@@ -9329,7 +9641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000000-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13420,7 +13732,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000001-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17511,7 +17823,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000002-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21866,7 +22178,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000003-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -26194,7 +26506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000004-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -28977,7 +29289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000005-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -31239,7 +31551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000006-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -33531,7 +33843,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000007-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -35796,7 +36108,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9E77-4EAD-BFC1-8299BAFB4C8A}"/>
+              <c16:uniqueId val="{00000008-9D23-4401-889A-BDDF5CC105DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -36239,7 +36551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC7FC8F-662B-405E-8BD0-56D56102CF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB2326D-81E2-48BC-B7F4-3946A79673E9}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -36264,7 +36576,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>897</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -36277,7 +36589,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>898</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -36290,7 +36602,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>899</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -36303,7 +36615,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>900</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -36316,27 +36628,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>901</v>
+        <v>1005</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>902</v>
+        <v>1006</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>903</v>
+        <v>1007</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>904</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>905</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -36364,7 +36676,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>906</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -36392,11 +36704,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>907</v>
+        <v>1011</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>908</v>
+        <v>1012</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -36419,7 +36731,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>908</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -36456,7 +36768,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>909</v>
+        <v>1013</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -36479,14 +36791,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>909</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>910</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -36509,14 +36821,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>910</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>911</v>
+        <v>1015</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -36539,14 +36851,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>911</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>912</v>
+        <v>1016</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -36569,14 +36881,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>912</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>913</v>
+        <v>1017</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -36599,16 +36911,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>913</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>914</v>
+        <v>1018</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>915</v>
+        <v>1019</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -36631,14 +36943,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>915</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>916</v>
+        <v>1020</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -36661,10 +36973,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>916</v>
+        <v>1020</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>917</v>
+        <v>1021</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -36672,7 +36984,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>918</v>
+        <v>1022</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -36684,7 +36996,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>919</v>
+        <v>1023</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -36707,7 +37019,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>919</v>
+        <v>1023</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -36723,11 +37035,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>920</v>
+        <v>1024</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>921</v>
+        <v>1025</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -36750,7 +37062,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>921</v>
+        <v>1025</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -36768,7 +37080,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>922</v>
+        <v>1026</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -36791,7 +37103,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>922</v>
+        <v>1026</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -36810,7 +37122,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>923</v>
+        <v>1027</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -36833,10 +37145,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>923</v>
+        <v>1027</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>924</v>
+        <v>1028</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -36854,7 +37166,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>925</v>
+        <v>1029</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -36877,52 +37189,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>925</v>
+        <v>1029</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>926</v>
+        <v>1030</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>929</v>
+        <v>1033</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>930</v>
+        <v>1034</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>938</v>
+        <v>1042</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>939</v>
+        <v>1043</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -36945,53 +37257,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>939</v>
+        <v>1043</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>946</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>926</v>
+        <v>1030</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -37014,43 +37326,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>926</v>
+        <v>1030</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -37058,7 +37370,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -37081,43 +37393,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>927</v>
+        <v>1031</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -37125,7 +37437,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -37148,43 +37460,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>928</v>
+        <v>1032</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -37192,7 +37504,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>929</v>
+        <v>1033</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -37215,43 +37527,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>929</v>
+        <v>1033</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -37259,7 +37571,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>930</v>
+        <v>1034</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -37282,43 +37594,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>930</v>
+        <v>1034</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -37326,7 +37638,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -37349,43 +37661,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>931</v>
+        <v>1035</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -37393,7 +37705,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -37416,43 +37728,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -37460,7 +37772,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -37483,43 +37795,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -37527,7 +37839,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -37550,43 +37862,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -37594,7 +37906,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -37617,43 +37929,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -37661,7 +37973,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -37684,43 +37996,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>943</v>
+        <v>1047</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>942</v>
+        <v>1046</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -37728,7 +38040,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -37751,7 +38063,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -37764,10 +38076,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>941</v>
+        <v>1045</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>940</v>
+        <v>1044</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -37775,7 +38087,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -37798,14 +38110,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>948</v>
+        <v>1052</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -37820,7 +38132,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -37843,7 +38155,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -37863,7 +38175,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -37886,7 +38198,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -37906,7 +38218,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -37929,7 +38241,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -37947,11 +38259,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>952</v>
+        <v>1056</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>953</v>
+        <v>1057</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -37974,14 +38286,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>953</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -38004,14 +38316,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>932</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -38034,14 +38346,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>933</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -38064,14 +38376,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>934</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -38094,14 +38406,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>935</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -38124,14 +38436,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>936</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -38154,10 +38466,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>937</v>
+        <v>1041</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>954</v>
+        <v>1058</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -38174,7 +38486,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -38197,7 +38509,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>947</v>
+        <v>1051</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -38215,7 +38527,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -38238,7 +38550,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>949</v>
+        <v>1053</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -38256,7 +38568,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -38279,14 +38591,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>950</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -38309,14 +38621,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>951</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>955</v>
+        <v>1059</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -38339,24 +38651,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>955</v>
+        <v>1059</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>956</v>
+        <v>1060</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>957</v>
+        <v>1061</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>958</v>
+        <v>1062</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -38379,7 +38691,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>958</v>
+        <v>1062</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -38388,7 +38700,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>959</v>
+        <v>1063</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -38411,14 +38723,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>959</v>
+        <v>1063</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>960</v>
+        <v>1064</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -38426,7 +38738,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>961</v>
+        <v>1065</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -38449,7 +38761,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>961</v>
+        <v>1065</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -38458,7 +38770,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>962</v>
+        <v>1066</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -38481,14 +38793,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>962</v>
+        <v>1066</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>963</v>
+        <v>1067</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -38496,7 +38808,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>964</v>
+        <v>1068</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -38519,7 +38831,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>964</v>
+        <v>1068</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -38528,7 +38840,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>965</v>
+        <v>1069</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -38551,24 +38863,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>965</v>
+        <v>1069</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>966</v>
+        <v>1070</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>967</v>
+        <v>1071</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>968</v>
+        <v>1072</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -38591,7 +38903,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>968</v>
+        <v>1072</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -38600,7 +38912,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -38623,22 +38935,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>969</v>
+        <v>1073</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>944</v>
+        <v>1048</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>970</v>
+        <v>1074</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -38646,7 +38958,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>971</v>
+        <v>1075</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -38669,7 +38981,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>971</v>
+        <v>1075</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -38682,7 +38994,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>972</v>
+        <v>1076</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -38705,32 +39017,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>972</v>
+        <v>1076</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>945</v>
+        <v>1049</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>973</v>
+        <v>1077</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>974</v>
+        <v>1078</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>975</v>
+        <v>1079</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -38753,7 +39065,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>975</v>
+        <v>1079</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -38762,7 +39074,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>976</v>
+        <v>1080</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -38785,14 +39097,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>976</v>
+        <v>1080</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>977</v>
+        <v>1081</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -38800,7 +39112,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>978</v>
+        <v>1082</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -38823,14 +39135,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>978</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>979</v>
+        <v>1083</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -38853,12 +39165,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>979</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>980</v>
+        <v>1084</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -38886,7 +39198,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>981</v>
+        <v>1085</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -38913,13 +39225,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>982</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>983</v>
+        <v>1087</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -38947,7 +39259,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>984</v>
+        <v>1088</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -39059,7 +39371,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>985</v>
+        <v>1089</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -39087,7 +39399,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>986</v>
+        <v>1090</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -39115,7 +39427,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>987</v>
+        <v>1091</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -55735,13 +56047,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:GS38"/>
+  <dimension ref="A30:HP93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:201" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>733</v>
       </c>
@@ -55749,12 +56061,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="31" spans="1:201" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:224" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>735</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>736</v>
@@ -55784,2373 +56096,3725 @@
         <v>736</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="W31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="X31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Y31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="AG31" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AH31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AI31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AJ31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AL31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AD31" s="1" t="s">
+      <c r="AM31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AE31" s="1" t="s">
+      <c r="AN31" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="AF31" s="1" t="s">
+      <c r="AO31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AG31" s="1" t="s">
+      <c r="AP31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AH31" s="1" t="s">
+      <c r="AQ31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AI31" s="1" t="s">
+      <c r="AR31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AJ31" s="1" t="s">
+      <c r="AS31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AK31" s="1" t="s">
+      <c r="AT31" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AU31" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="AV31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AM31" s="1" t="s">
+      <c r="AW31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AN31" s="1" t="s">
+      <c r="AX31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AO31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AP31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AQ31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AR31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="AS31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AT31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AU31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AV31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AW31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AX31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BK31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BL31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BM31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="BN31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BE31" s="1" t="s">
+      <c r="BO31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BF31" s="1" t="s">
+      <c r="BP31" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="BQ31" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="BR31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="BS31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="BT31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="BU31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BK31" s="1" t="s">
+      <c r="BV31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BL31" s="1" t="s">
+      <c r="BW31" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="BM31" s="1" t="s">
+      <c r="BX31" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="BY31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BN31" s="1" t="s">
+      <c r="BZ31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BO31" s="1" t="s">
+      <c r="CA31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BP31" s="1" t="s">
+      <c r="CB31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BQ31" s="1" t="s">
+      <c r="CC31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BR31" s="1" t="s">
+      <c r="CD31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BS31" s="1" t="s">
+      <c r="CE31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BT31" s="1" t="s">
+      <c r="CF31" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="BU31" s="1" t="s">
+      <c r="CG31" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="CH31" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="CI31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BV31" s="1" t="s">
+      <c r="CJ31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BW31" s="1" t="s">
+      <c r="CK31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BX31" s="1" t="s">
+      <c r="CL31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BY31" s="1" t="s">
+      <c r="CM31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="BZ31" s="1" t="s">
+      <c r="CN31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="CA31" s="1" t="s">
+      <c r="CO31" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="CB31" s="1" t="s">
+      <c r="CP31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CC31" s="1" t="s">
+      <c r="CQ31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="CR31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CE31" s="1" t="s">
+      <c r="CS31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CF31" s="1" t="s">
+      <c r="CT31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CG31" s="1" t="s">
+      <c r="CU31" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="CH31" s="1" t="s">
+      <c r="CV31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CI31" s="1" t="s">
+      <c r="CW31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CJ31" s="1" t="s">
+      <c r="CX31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CK31" s="1" t="s">
+      <c r="CY31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CL31" s="1" t="s">
+      <c r="CZ31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CM31" s="1" t="s">
+      <c r="DA31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CN31" s="1" t="s">
+      <c r="DB31" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="CO31" s="1" t="s">
+      <c r="DC31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CP31" s="1" t="s">
+      <c r="DD31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CQ31" s="1" t="s">
+      <c r="DE31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CR31" s="1" t="s">
+      <c r="DF31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CS31" s="1" t="s">
+      <c r="DG31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CT31" s="1" t="s">
+      <c r="DH31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CU31" s="1" t="s">
+      <c r="DI31" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="CV31" s="1" t="s">
+      <c r="DJ31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CW31" s="1" t="s">
+      <c r="DK31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CX31" s="1" t="s">
+      <c r="DL31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CY31" s="1" t="s">
+      <c r="DM31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="CZ31" s="1" t="s">
+      <c r="DN31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="DA31" s="1" t="s">
+      <c r="DO31" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="DB31" s="1" t="s">
+      <c r="DP31" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="DQ31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DC31" s="1" t="s">
+      <c r="DR31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DD31" s="1" t="s">
+      <c r="DS31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DE31" s="1" t="s">
+      <c r="DT31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DF31" s="1" t="s">
+      <c r="DU31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DG31" s="1" t="s">
+      <c r="DV31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DH31" s="1" t="s">
+      <c r="DW31" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="DI31" s="1" t="s">
+      <c r="DX31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DJ31" s="1" t="s">
+      <c r="DY31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DK31" s="1" t="s">
+      <c r="DZ31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DL31" s="1" t="s">
+      <c r="EA31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DM31" s="1" t="s">
+      <c r="EB31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DN31" s="1" t="s">
+      <c r="EC31" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="DO31" s="1" t="s">
+      <c r="ED31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DP31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DQ31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DR31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DS31" s="1" t="s">
+      <c r="EH31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DT31" s="1" t="s">
+      <c r="EI31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DU31" s="1" t="s">
+      <c r="EJ31" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="DV31" s="1" t="s">
+      <c r="EK31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DW31" s="1" t="s">
+      <c r="EL31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DX31" s="1" t="s">
+      <c r="EM31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DY31" s="1" t="s">
+      <c r="EN31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="DZ31" s="1" t="s">
+      <c r="EO31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="EA31" s="1" t="s">
+      <c r="EP31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="EB31" s="1" t="s">
+      <c r="EQ31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="EC31" s="1" t="s">
+      <c r="ER31" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="ED31" s="1" t="s">
+      <c r="ES31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EE31" s="1" t="s">
+      <c r="ET31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EF31" s="1" t="s">
+      <c r="EU31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EG31" s="1" t="s">
+      <c r="EV31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EH31" s="1" t="s">
+      <c r="EW31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EI31" s="1" t="s">
+      <c r="EX31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EJ31" s="1" t="s">
+      <c r="EY31" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="EK31" s="1" t="s">
+      <c r="EZ31" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="FA31" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="FB31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EL31" s="1" t="s">
+      <c r="FC31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EM31" s="1" t="s">
+      <c r="FD31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EN31" s="1" t="s">
+      <c r="FE31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EO31" s="1" t="s">
+      <c r="FF31" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="EP31" s="1" t="s">
+      <c r="FG31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="EQ31" s="1" t="s">
+      <c r="FH31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="ER31" s="1" t="s">
+      <c r="FI31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="ES31" s="1" t="s">
+      <c r="FJ31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="ET31" s="1" t="s">
+      <c r="FK31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="EU31" s="1" t="s">
+      <c r="FL31" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="EV31" s="1" t="s">
+      <c r="FM31" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="FN31" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="FO31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EW31" s="1" t="s">
+      <c r="FP31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EX31" s="1" t="s">
+      <c r="FQ31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EY31" s="1" t="s">
+      <c r="FR31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="EZ31" s="1" t="s">
+      <c r="FS31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="FA31" s="1" t="s">
+      <c r="FT31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="FB31" s="1" t="s">
+      <c r="FU31" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="FC31" s="1" t="s">
+      <c r="FV31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FD31" s="1" t="s">
+      <c r="FW31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FE31" s="1" t="s">
+      <c r="FX31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FF31" s="1" t="s">
+      <c r="FY31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FG31" s="1" t="s">
+      <c r="FZ31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FH31" s="1" t="s">
+      <c r="GA31" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="FI31" s="1" t="s">
+      <c r="GB31" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="GC31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FJ31" s="1" t="s">
+      <c r="GD31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FK31" s="1" t="s">
+      <c r="GE31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FL31" s="1" t="s">
+      <c r="GF31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FM31" s="1" t="s">
+      <c r="GG31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FN31" s="1" t="s">
+      <c r="GH31" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="FO31" s="1" t="s">
+      <c r="GI31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FP31" s="1" t="s">
+      <c r="GJ31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FQ31" s="1" t="s">
+      <c r="GK31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FR31" s="1" t="s">
+      <c r="GL31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FS31" s="1" t="s">
+      <c r="GM31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FT31" s="1" t="s">
+      <c r="GN31" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="FU31" s="1" t="s">
+      <c r="GO31" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="GP31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FV31" s="1" t="s">
+      <c r="GQ31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FW31" s="1" t="s">
+      <c r="GR31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FX31" s="1" t="s">
+      <c r="GS31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FY31" s="1" t="s">
+      <c r="GT31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="FZ31" s="1" t="s">
+      <c r="GU31" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="GA31" s="1" t="s">
+      <c r="GV31" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="GW31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GB31" s="1" t="s">
+      <c r="GX31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GC31" s="1" t="s">
+      <c r="GY31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GD31" s="1" t="s">
+      <c r="GZ31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GE31" s="1" t="s">
+      <c r="HA31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GF31" s="1" t="s">
+      <c r="HB31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GG31" s="1" t="s">
+      <c r="HC31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GH31" s="1" t="s">
+      <c r="HD31" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="GI31" s="1" t="s">
+      <c r="HE31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GJ31" s="1" t="s">
+      <c r="HF31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GK31" s="1" t="s">
+      <c r="HG31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GL31" s="1" t="s">
+      <c r="HH31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GM31" s="1" t="s">
+      <c r="HI31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GN31" s="1" t="s">
+      <c r="HJ31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GO31" s="1" t="s">
+      <c r="HK31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GP31" s="1" t="s">
+      <c r="HL31" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="GQ31" s="1" t="s">
+      <c r="HM31" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="GR31" s="1" t="s">
+      <c r="HN31" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="GS31" s="1" t="s">
+      <c r="HO31" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="32" spans="1:201" x14ac:dyDescent="0.3">
+      <c r="HP31" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="C32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="D32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="E32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="F32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="G32" t="s">
-        <v>778</v>
+        <v>827</v>
       </c>
       <c r="H32" t="s">
-        <v>781</v>
+        <v>827</v>
       </c>
       <c r="I32" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="J32" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="K32" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="L32" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="M32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="N32" t="s">
-        <v>787</v>
+        <v>827</v>
       </c>
       <c r="O32" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="P32" t="s">
-        <v>789</v>
+        <v>858</v>
       </c>
       <c r="Q32" t="s">
-        <v>791</v>
+        <v>861</v>
       </c>
       <c r="R32" t="s">
-        <v>786</v>
+        <v>862</v>
       </c>
       <c r="S32" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="T32" t="s">
-        <v>787</v>
+        <v>865</v>
       </c>
       <c r="U32" t="s">
-        <v>793</v>
+        <v>866</v>
       </c>
       <c r="V32" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="W32" t="s">
-        <v>795</v>
+        <v>869</v>
       </c>
       <c r="X32" t="s">
-        <v>786</v>
+        <v>870</v>
       </c>
       <c r="Y32" t="s">
-        <v>772</v>
+        <v>871</v>
       </c>
       <c r="Z32" t="s">
-        <v>796</v>
+        <v>873</v>
       </c>
       <c r="AA32" t="s">
-        <v>797</v>
+        <v>866</v>
       </c>
       <c r="AB32" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="AC32" t="s">
-        <v>794</v>
+        <v>869</v>
       </c>
       <c r="AD32" t="s">
-        <v>799</v>
+        <v>876</v>
       </c>
       <c r="AE32" t="s">
-        <v>800</v>
+        <v>877</v>
       </c>
       <c r="AF32" t="s">
-        <v>801</v>
+        <v>878</v>
       </c>
       <c r="AG32" t="s">
-        <v>787</v>
+        <v>866</v>
       </c>
       <c r="AH32" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="AI32" t="s">
-        <v>803</v>
+        <v>883</v>
       </c>
       <c r="AJ32" t="s">
-        <v>804</v>
+        <v>884</v>
       </c>
       <c r="AK32" t="s">
-        <v>805</v>
+        <v>885</v>
       </c>
       <c r="AL32" t="s">
-        <v>772</v>
+        <v>877</v>
       </c>
       <c r="AM32" t="s">
-        <v>806</v>
+        <v>886</v>
       </c>
       <c r="AN32" t="s">
-        <v>808</v>
+        <v>887</v>
       </c>
       <c r="AO32" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="AP32" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="AQ32" t="s">
-        <v>810</v>
+        <v>869</v>
       </c>
       <c r="AR32" t="s">
-        <v>811</v>
+        <v>890</v>
       </c>
       <c r="AS32" t="s">
-        <v>772</v>
+        <v>891</v>
       </c>
       <c r="AT32" t="s">
-        <v>772</v>
+        <v>892</v>
       </c>
       <c r="AU32" t="s">
-        <v>813</v>
+        <v>893</v>
       </c>
       <c r="AV32" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="AW32" t="s">
-        <v>815</v>
+        <v>896</v>
       </c>
       <c r="AX32" t="s">
-        <v>816</v>
+        <v>898</v>
       </c>
       <c r="AY32" t="s">
-        <v>817</v>
+        <v>899</v>
       </c>
       <c r="AZ32" t="s">
-        <v>818</v>
+        <v>877</v>
       </c>
       <c r="BA32" t="s">
-        <v>819</v>
+        <v>900</v>
       </c>
       <c r="BB32" t="s">
-        <v>820</v>
+        <v>901</v>
       </c>
       <c r="BC32" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="BD32" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="BE32" t="s">
-        <v>824</v>
+        <v>903</v>
       </c>
       <c r="BF32" t="s">
-        <v>825</v>
+        <v>904</v>
       </c>
       <c r="BG32" t="s">
-        <v>772</v>
+        <v>905</v>
       </c>
       <c r="BH32" t="s">
-        <v>826</v>
+        <v>906</v>
       </c>
       <c r="BI32" t="s">
+        <v>907</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>908</v>
+      </c>
+      <c r="BK32" t="s">
         <v>827</v>
       </c>
-      <c r="BJ32" t="s">
-        <v>794</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>828</v>
-      </c>
       <c r="BL32" t="s">
-        <v>829</v>
+        <v>912</v>
       </c>
       <c r="BM32" t="s">
-        <v>772</v>
+        <v>913</v>
       </c>
       <c r="BN32" t="s">
-        <v>772</v>
+        <v>914</v>
       </c>
       <c r="BO32" t="s">
-        <v>831</v>
+        <v>916</v>
       </c>
       <c r="BP32" t="s">
-        <v>832</v>
+        <v>917</v>
       </c>
       <c r="BQ32" t="s">
+        <v>918</v>
+      </c>
+      <c r="BR32" t="s">
         <v>827</v>
       </c>
-      <c r="BR32" t="s">
-        <v>794</v>
-      </c>
       <c r="BS32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="BT32" t="s">
-        <v>833</v>
+        <v>920</v>
       </c>
       <c r="BU32" t="s">
-        <v>772</v>
+        <v>921</v>
       </c>
       <c r="BV32" t="s">
-        <v>834</v>
+        <v>877</v>
       </c>
       <c r="BW32" t="s">
-        <v>835</v>
+        <v>922</v>
       </c>
       <c r="BX32" t="s">
-        <v>836</v>
+        <v>923</v>
       </c>
       <c r="BY32" t="s">
-        <v>794</v>
+        <v>827</v>
       </c>
       <c r="BZ32" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="CA32" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="CB32" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="CC32" t="s">
-        <v>787</v>
+        <v>925</v>
       </c>
       <c r="CD32" t="s">
-        <v>838</v>
+        <v>926</v>
       </c>
       <c r="CE32" t="s">
-        <v>839</v>
+        <v>921</v>
       </c>
       <c r="CF32" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="CG32" t="s">
-        <v>841</v>
+        <v>922</v>
       </c>
       <c r="CH32" t="s">
-        <v>772</v>
+        <v>927</v>
       </c>
       <c r="CI32" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="CJ32" t="s">
-        <v>843</v>
+        <v>928</v>
       </c>
       <c r="CK32" t="s">
-        <v>802</v>
+        <v>929</v>
       </c>
       <c r="CL32" t="s">
-        <v>844</v>
+        <v>930</v>
       </c>
       <c r="CM32" t="s">
-        <v>828</v>
+        <v>877</v>
       </c>
       <c r="CN32" t="s">
-        <v>845</v>
+        <v>931</v>
       </c>
       <c r="CO32" t="s">
-        <v>772</v>
+        <v>866</v>
       </c>
       <c r="CP32" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="CQ32" t="s">
-        <v>787</v>
+        <v>869</v>
       </c>
       <c r="CR32" t="s">
+        <v>932</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>933</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>934</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>935</v>
+      </c>
+      <c r="CV32" t="s">
         <v>827</v>
       </c>
-      <c r="CS32" t="s">
-        <v>794</v>
-      </c>
-      <c r="CT32" t="s">
-        <v>828</v>
-      </c>
-      <c r="CU32" t="s">
-        <v>786</v>
-      </c>
-      <c r="CV32" t="s">
-        <v>847</v>
-      </c>
       <c r="CW32" t="s">
-        <v>787</v>
+        <v>936</v>
       </c>
       <c r="CX32" t="s">
+        <v>937</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>890</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>938</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>922</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>939</v>
+      </c>
+      <c r="DC32" t="s">
         <v>827</v>
       </c>
-      <c r="CY32" t="s">
-        <v>794</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>828</v>
-      </c>
-      <c r="DA32" t="s">
-        <v>786</v>
-      </c>
-      <c r="DB32" t="s">
-        <v>772</v>
-      </c>
-      <c r="DC32" t="s">
-        <v>848</v>
-      </c>
       <c r="DD32" t="s">
-        <v>849</v>
+        <v>940</v>
       </c>
       <c r="DE32" t="s">
-        <v>793</v>
+        <v>869</v>
       </c>
       <c r="DF32" t="s">
-        <v>850</v>
+        <v>921</v>
       </c>
       <c r="DG32" t="s">
-        <v>851</v>
+        <v>877</v>
       </c>
       <c r="DH32" t="s">
-        <v>852</v>
+        <v>922</v>
       </c>
       <c r="DI32" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="DJ32" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="DK32" t="s">
-        <v>855</v>
+        <v>941</v>
       </c>
       <c r="DL32" t="s">
-        <v>794</v>
+        <v>869</v>
       </c>
       <c r="DM32" t="s">
-        <v>856</v>
+        <v>921</v>
       </c>
       <c r="DN32" t="s">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="DO32" t="s">
-        <v>772</v>
+        <v>922</v>
       </c>
       <c r="DP32" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="DQ32" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="DR32" t="s">
+        <v>943</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>944</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>876</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>945</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>946</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>947</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>948</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>949</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>950</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>877</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>951</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>952</v>
+      </c>
+      <c r="ED32" t="s">
         <v>827</v>
       </c>
-      <c r="DS32" t="s">
-        <v>794</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>828</v>
-      </c>
-      <c r="DU32" t="s">
-        <v>786</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>772</v>
-      </c>
-      <c r="DW32" t="s">
-        <v>772</v>
-      </c>
-      <c r="DX32" t="s">
-        <v>787</v>
-      </c>
-      <c r="DY32" t="s">
-        <v>821</v>
-      </c>
-      <c r="DZ32" t="s">
-        <v>860</v>
-      </c>
-      <c r="EA32" t="s">
-        <v>861</v>
-      </c>
-      <c r="EB32" t="s">
-        <v>862</v>
-      </c>
-      <c r="EC32" t="s">
-        <v>786</v>
-      </c>
-      <c r="ED32" t="s">
-        <v>772</v>
-      </c>
       <c r="EE32" t="s">
-        <v>772</v>
+        <v>953</v>
       </c>
       <c r="EF32" t="s">
-        <v>787</v>
+        <v>954</v>
       </c>
       <c r="EG32" t="s">
+        <v>921</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>877</v>
+      </c>
+      <c r="EI32" t="s">
+        <v>922</v>
+      </c>
+      <c r="EJ32" t="s">
+        <v>866</v>
+      </c>
+      <c r="EK32" t="s">
         <v>827</v>
       </c>
-      <c r="EH32" t="s">
-        <v>794</v>
-      </c>
-      <c r="EI32" t="s">
-        <v>828</v>
-      </c>
-      <c r="EJ32" t="s">
-        <v>863</v>
-      </c>
-      <c r="EK32" t="s">
-        <v>772</v>
-      </c>
       <c r="EL32" t="s">
-        <v>864</v>
+        <v>827</v>
       </c>
       <c r="EM32" t="s">
+        <v>869</v>
+      </c>
+      <c r="EN32" t="s">
+        <v>914</v>
+      </c>
+      <c r="EO32" t="s">
+        <v>955</v>
+      </c>
+      <c r="EP32" t="s">
+        <v>956</v>
+      </c>
+      <c r="EQ32" t="s">
+        <v>957</v>
+      </c>
+      <c r="ER32" t="s">
+        <v>866</v>
+      </c>
+      <c r="ES32" t="s">
         <v>827</v>
       </c>
-      <c r="EN32" t="s">
-        <v>794</v>
-      </c>
-      <c r="EO32" t="s">
-        <v>865</v>
-      </c>
-      <c r="EP32" t="s">
+      <c r="ET32" t="s">
+        <v>827</v>
+      </c>
+      <c r="EU32" t="s">
+        <v>827</v>
+      </c>
+      <c r="EV32" t="s">
+        <v>827</v>
+      </c>
+      <c r="EW32" t="s">
+        <v>869</v>
+      </c>
+      <c r="EX32" t="s">
+        <v>921</v>
+      </c>
+      <c r="EY32" t="s">
+        <v>877</v>
+      </c>
+      <c r="EZ32" t="s">
+        <v>922</v>
+      </c>
+      <c r="FA32" t="s">
+        <v>959</v>
+      </c>
+      <c r="FB32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FC32" t="s">
+        <v>961</v>
+      </c>
+      <c r="FD32" t="s">
+        <v>921</v>
+      </c>
+      <c r="FE32" t="s">
+        <v>877</v>
+      </c>
+      <c r="FF32" t="s">
+        <v>962</v>
+      </c>
+      <c r="FG32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FH32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FI32" t="s">
+        <v>965</v>
+      </c>
+      <c r="FJ32" t="s">
+        <v>966</v>
+      </c>
+      <c r="FK32" t="s">
+        <v>967</v>
+      </c>
+      <c r="FL32" t="s">
+        <v>968</v>
+      </c>
+      <c r="FM32" t="s">
+        <v>922</v>
+      </c>
+      <c r="FN32" t="s">
+        <v>952</v>
+      </c>
+      <c r="FO32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FP32" t="s">
+        <v>936</v>
+      </c>
+      <c r="FQ32" t="s">
+        <v>971</v>
+      </c>
+      <c r="FR32" t="s">
+        <v>972</v>
+      </c>
+      <c r="FS32" t="s">
+        <v>973</v>
+      </c>
+      <c r="FT32" t="s">
+        <v>922</v>
+      </c>
+      <c r="FU32" t="s">
+        <v>974</v>
+      </c>
+      <c r="FV32" t="s">
+        <v>827</v>
+      </c>
+      <c r="FW32" t="s">
+        <v>965</v>
+      </c>
+      <c r="FX32" t="s">
+        <v>869</v>
+      </c>
+      <c r="FY32" t="s">
+        <v>921</v>
+      </c>
+      <c r="FZ32" t="s">
+        <v>877</v>
+      </c>
+      <c r="GA32" t="s">
+        <v>976</v>
+      </c>
+      <c r="GB32" t="s">
         <v>866</v>
       </c>
-      <c r="EQ32" t="s">
-        <v>867</v>
-      </c>
-      <c r="ER32" t="s">
-        <v>868</v>
-      </c>
-      <c r="ES32" t="s">
-        <v>869</v>
-      </c>
-      <c r="ET32" t="s">
-        <v>828</v>
-      </c>
-      <c r="EU32" t="s">
-        <v>857</v>
-      </c>
-      <c r="EV32" t="s">
-        <v>772</v>
-      </c>
-      <c r="EW32" t="s">
-        <v>842</v>
-      </c>
-      <c r="EX32" t="s">
-        <v>870</v>
-      </c>
-      <c r="EY32" t="s">
-        <v>871</v>
-      </c>
-      <c r="EZ32" t="s">
-        <v>872</v>
-      </c>
-      <c r="FA32" t="s">
-        <v>828</v>
-      </c>
-      <c r="FB32" t="s">
-        <v>873</v>
-      </c>
-      <c r="FC32" t="s">
+      <c r="GC32" t="s">
+        <v>827</v>
+      </c>
+      <c r="GD32" t="s">
+        <v>977</v>
+      </c>
+      <c r="GE32" t="s">
+        <v>921</v>
+      </c>
+      <c r="GF32" t="s">
+        <v>973</v>
+      </c>
+      <c r="GG32" t="s">
+        <v>978</v>
+      </c>
+      <c r="GH32" t="s">
+        <v>979</v>
+      </c>
+      <c r="GI32" t="s">
+        <v>827</v>
+      </c>
+      <c r="GJ32" t="s">
+        <v>943</v>
+      </c>
+      <c r="GK32" t="s">
+        <v>981</v>
+      </c>
+      <c r="GL32" t="s">
+        <v>982</v>
+      </c>
+      <c r="GM32" t="s">
+        <v>877</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>900</v>
+      </c>
+      <c r="GO32" t="s">
         <v>866</v>
       </c>
-      <c r="FD32" t="s">
-        <v>787</v>
-      </c>
-      <c r="FE32" t="s">
+      <c r="GP32" t="s">
         <v>827</v>
       </c>
-      <c r="FF32" t="s">
-        <v>794</v>
-      </c>
-      <c r="FG32" t="s">
-        <v>874</v>
-      </c>
-      <c r="FH32" t="s">
-        <v>786</v>
-      </c>
-      <c r="FI32" t="s">
-        <v>772</v>
-      </c>
-      <c r="FJ32" t="s">
-        <v>875</v>
-      </c>
-      <c r="FK32" t="s">
+      <c r="GQ32" t="s">
+        <v>984</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>985</v>
+      </c>
+      <c r="GS32" t="s">
+        <v>986</v>
+      </c>
+      <c r="GT32" t="s">
+        <v>987</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>988</v>
+      </c>
+      <c r="GV32" t="s">
+        <v>989</v>
+      </c>
+      <c r="GW32" t="s">
         <v>827</v>
       </c>
-      <c r="FL32" t="s">
-        <v>872</v>
-      </c>
-      <c r="FM32" t="s">
-        <v>876</v>
-      </c>
-      <c r="FN32" t="s">
+      <c r="GX32" t="s">
+        <v>827</v>
+      </c>
+      <c r="GY32" t="s">
+        <v>991</v>
+      </c>
+      <c r="GZ32" t="s">
+        <v>977</v>
+      </c>
+      <c r="HA32" t="s">
+        <v>992</v>
+      </c>
+      <c r="HB32" t="s">
+        <v>993</v>
+      </c>
+      <c r="HC32" t="s">
+        <v>994</v>
+      </c>
+      <c r="HD32" t="s">
+        <v>866</v>
+      </c>
+      <c r="HE32" t="s">
+        <v>827</v>
+      </c>
+      <c r="HF32" t="s">
+        <v>995</v>
+      </c>
+      <c r="HG32" t="s">
+        <v>996</v>
+      </c>
+      <c r="HH32" t="s">
+        <v>955</v>
+      </c>
+      <c r="HI32" t="s">
         <v>877</v>
       </c>
-      <c r="FO32" t="s">
-        <v>848</v>
-      </c>
-      <c r="FP32" t="s">
-        <v>878</v>
-      </c>
-      <c r="FQ32" t="s">
-        <v>879</v>
-      </c>
-      <c r="FR32" t="s">
-        <v>794</v>
-      </c>
-      <c r="FS32" t="s">
-        <v>810</v>
-      </c>
-      <c r="FT32" t="s">
-        <v>786</v>
-      </c>
-      <c r="FU32" t="s">
-        <v>880</v>
-      </c>
-      <c r="FV32" t="s">
-        <v>881</v>
-      </c>
-      <c r="FW32" t="s">
-        <v>882</v>
-      </c>
-      <c r="FX32" t="s">
-        <v>883</v>
-      </c>
-      <c r="FY32" t="s">
-        <v>884</v>
-      </c>
-      <c r="FZ32" t="s">
-        <v>885</v>
-      </c>
-      <c r="GA32" t="s">
-        <v>772</v>
-      </c>
-      <c r="GB32" t="s">
-        <v>772</v>
-      </c>
-      <c r="GC32" t="s">
-        <v>887</v>
-      </c>
-      <c r="GD32" t="s">
-        <v>875</v>
-      </c>
-      <c r="GE32" t="s">
-        <v>888</v>
-      </c>
-      <c r="GF32" t="s">
-        <v>889</v>
-      </c>
-      <c r="GG32" t="s">
-        <v>890</v>
-      </c>
-      <c r="GH32" t="s">
-        <v>786</v>
-      </c>
-      <c r="GI32" t="s">
-        <v>772</v>
-      </c>
-      <c r="GJ32" t="s">
-        <v>891</v>
-      </c>
-      <c r="GK32" t="s">
-        <v>892</v>
-      </c>
-      <c r="GL32" t="s">
-        <v>860</v>
-      </c>
-      <c r="GM32" t="s">
-        <v>794</v>
-      </c>
-      <c r="GN32" t="s">
-        <v>893</v>
-      </c>
-      <c r="GO32" t="s">
-        <v>894</v>
-      </c>
-      <c r="GP32" t="s">
-        <v>895</v>
-      </c>
-      <c r="GQ32" t="s">
-        <v>896</v>
-      </c>
-      <c r="GR32" t="s">
+      <c r="HJ32" t="s">
+        <v>997</v>
+      </c>
+      <c r="HK32" t="s">
+        <v>998</v>
+      </c>
+      <c r="HL32" t="s">
+        <v>999</v>
+      </c>
+      <c r="HM32" t="s">
         <v>827</v>
       </c>
-      <c r="GS32" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:201" x14ac:dyDescent="0.3">
+      <c r="HN32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="HO32" t="s">
+        <v>921</v>
+      </c>
+      <c r="HP32" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="33" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="G33" t="s">
-        <v>779</v>
-      </c>
-      <c r="H33" t="s">
-        <v>779</v>
-      </c>
-      <c r="I33" t="s">
-        <v>779</v>
-      </c>
-      <c r="J33" t="s">
-        <v>779</v>
-      </c>
-      <c r="K33" t="s">
-        <v>779</v>
-      </c>
-      <c r="L33" t="s">
-        <v>779</v>
-      </c>
-      <c r="M33" t="s">
-        <v>779</v>
-      </c>
-      <c r="N33" t="s">
-        <v>779</v>
-      </c>
-      <c r="O33" t="s">
-        <v>779</v>
-      </c>
       <c r="P33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="Q33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="R33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="S33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="T33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="U33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="V33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="W33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="X33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>859</v>
       </c>
       <c r="Z33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AB33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AG33" t="s">
-        <v>779</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AI33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AK33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>859</v>
       </c>
       <c r="AM33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="AN33" t="s">
-        <v>779</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AR33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>859</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>859</v>
       </c>
       <c r="AU33" t="s">
-        <v>779</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AW33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="AX33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AY33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="AZ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BB33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BG33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BI33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BJ33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BL33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>859</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>859</v>
       </c>
       <c r="BO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BS33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BT33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>859</v>
       </c>
       <c r="BV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="BX33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>779</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="CC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CG33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>859</v>
       </c>
       <c r="CJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CK33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="CL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CN33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>859</v>
       </c>
       <c r="CP33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="CQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CS33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CT33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CU33" t="s">
-        <v>779</v>
-      </c>
-      <c r="CV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CX33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="CY33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="CZ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DA33" t="s">
-        <v>779</v>
-      </c>
-      <c r="DC33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="DB33" t="s">
+        <v>859</v>
       </c>
       <c r="DD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DG33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DI33" t="s">
-        <v>779</v>
-      </c>
-      <c r="DJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DN33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>859</v>
       </c>
       <c r="DP33" t="s">
-        <v>779</v>
-      </c>
-      <c r="DQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DS33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DT33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DU33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DX33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="DY33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>859</v>
       </c>
       <c r="EA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EB33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EC33" t="s">
-        <v>807</v>
-      </c>
-      <c r="ED33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EG33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EH33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EI33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EN33" t="s">
-        <v>807</v>
-      </c>
-      <c r="EO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EP33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="EQ33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="ER33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="ES33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="ET33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EU33" t="s">
-        <v>779</v>
+        <v>859</v>
+      </c>
+      <c r="EV33" t="s">
+        <v>859</v>
       </c>
       <c r="EW33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="EX33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="EY33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="EZ33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="FA33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FB33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FE33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="FF33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FG33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FI33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="FJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FL33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FN33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FO33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FQ33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FS33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FT33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FU33" t="s">
-        <v>779</v>
-      </c>
-      <c r="FV33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="FW33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FX33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FY33" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="FZ33" t="s">
-        <v>886</v>
+        <v>859</v>
+      </c>
+      <c r="GA33" t="s">
+        <v>859</v>
+      </c>
+      <c r="GB33" t="s">
+        <v>859</v>
       </c>
       <c r="GC33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GD33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GE33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GF33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GG33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GH33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GJ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GK33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GL33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="GM33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GN33" t="s">
-        <v>779</v>
+        <v>897</v>
       </c>
       <c r="GO33" t="s">
-        <v>779</v>
-      </c>
-      <c r="GP33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GQ33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GR33" t="s">
-        <v>779</v>
+        <v>859</v>
       </c>
       <c r="GS33" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:201" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+      <c r="GT33" t="s">
+        <v>897</v>
+      </c>
+      <c r="GU33" t="s">
+        <v>897</v>
+      </c>
+      <c r="GV33" t="s">
+        <v>990</v>
+      </c>
+      <c r="GY33" t="s">
+        <v>859</v>
+      </c>
+      <c r="GZ33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HA33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HB33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HC33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HD33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HF33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HG33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HH33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HI33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HJ33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HK33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HL33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HN33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HO33" t="s">
+        <v>859</v>
+      </c>
+      <c r="HP33" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="G34" t="s">
-        <v>780</v>
-      </c>
-      <c r="H34" t="s">
-        <v>780</v>
-      </c>
-      <c r="I34" t="s">
-        <v>783</v>
-      </c>
-      <c r="J34" t="s">
-        <v>780</v>
-      </c>
-      <c r="K34" t="s">
-        <v>780</v>
-      </c>
-      <c r="L34" t="s">
-        <v>780</v>
-      </c>
-      <c r="M34" t="s">
-        <v>780</v>
-      </c>
-      <c r="N34" t="s">
-        <v>780</v>
-      </c>
-      <c r="O34" t="s">
-        <v>780</v>
-      </c>
       <c r="P34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="Q34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="R34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="S34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="T34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="U34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="V34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="W34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="X34" t="s">
-        <v>780</v>
+        <v>860</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>872</v>
       </c>
       <c r="Z34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="AA34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="AB34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AC34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AD34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AE34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="AF34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="AG34" t="s">
-        <v>790</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AI34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AJ34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="AK34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>863</v>
       </c>
       <c r="AM34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="AN34" t="s">
-        <v>790</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AP34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AQ34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AR34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>863</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>863</v>
       </c>
       <c r="AU34" t="s">
-        <v>790</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="AW34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AX34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="AY34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="AZ34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BA34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BB34" t="s">
-        <v>790</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>822</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="BE34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="BF34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="BG34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BH34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BI34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BJ34" t="s">
-        <v>790</v>
-      </c>
-      <c r="BK34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BL34" t="s">
-        <v>790</v>
+        <v>872</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>872</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>915</v>
       </c>
       <c r="BO34" t="s">
-        <v>790</v>
+        <v>915</v>
       </c>
       <c r="BP34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="BQ34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="BR34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BS34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BT34" t="s">
-        <v>790</v>
+        <v>872</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>872</v>
       </c>
       <c r="BV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="BW34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="BX34" t="s">
-        <v>780</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>783</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>783</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>783</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CC34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CD34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CE34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="CF34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CG34" t="s">
-        <v>790</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>780</v>
+        <v>872</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>872</v>
       </c>
       <c r="CJ34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="CK34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="CL34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="CM34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="CN34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>863</v>
       </c>
       <c r="CP34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CQ34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CR34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CS34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CT34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="CU34" t="s">
-        <v>790</v>
-      </c>
-      <c r="CV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="CW34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="CX34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="CY34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="CZ34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DA34" t="s">
-        <v>783</v>
-      </c>
-      <c r="DC34" t="s">
-        <v>790</v>
+        <v>872</v>
+      </c>
+      <c r="DB34" t="s">
+        <v>872</v>
       </c>
       <c r="DD34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DE34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="DF34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="DG34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DH34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DI34" t="s">
-        <v>790</v>
-      </c>
-      <c r="DJ34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DK34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DL34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DM34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DN34" t="s">
-        <v>790</v>
+        <v>863</v>
+      </c>
+      <c r="DO34" t="s">
+        <v>863</v>
       </c>
       <c r="DP34" t="s">
-        <v>790</v>
-      </c>
-      <c r="DQ34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DR34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DS34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DT34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DU34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="DV34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DW34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DX34" t="s">
-        <v>790</v>
+        <v>872</v>
       </c>
       <c r="DY34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="DZ34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="EA34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="EB34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EC34" t="s">
-        <v>822</v>
-      </c>
-      <c r="ED34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EE34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EF34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EG34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EH34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EI34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EJ34" t="s">
-        <v>822</v>
+        <v>872</v>
       </c>
       <c r="EK34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="EL34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="EM34" t="s">
-        <v>783</v>
+        <v>872</v>
       </c>
       <c r="EN34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="EO34" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="EP34" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="EQ34" t="s">
-        <v>783</v>
+        <v>915</v>
       </c>
       <c r="ER34" t="s">
-        <v>783</v>
+        <v>915</v>
       </c>
       <c r="ES34" t="s">
-        <v>783</v>
+        <v>915</v>
       </c>
       <c r="ET34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EU34" t="s">
-        <v>780</v>
+        <v>915</v>
+      </c>
+      <c r="EV34" t="s">
+        <v>915</v>
       </c>
       <c r="EW34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EX34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EY34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="EZ34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="FA34" t="s">
-        <v>780</v>
+        <v>915</v>
       </c>
       <c r="FB34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FC34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FD34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FE34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FF34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FG34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FH34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="FI34" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="FJ34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FK34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FL34" t="s">
-        <v>780</v>
+        <v>863</v>
       </c>
       <c r="FM34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="FN34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FO34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FP34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FQ34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FR34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FS34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FT34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FU34" t="s">
-        <v>780</v>
-      </c>
-      <c r="FV34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FW34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FX34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FY34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="FZ34" t="s">
-        <v>780</v>
+        <v>860</v>
+      </c>
+      <c r="GA34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GB34" t="s">
+        <v>860</v>
       </c>
       <c r="GC34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GD34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GE34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GF34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GG34" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="GH34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GJ34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GK34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GL34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GM34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GN34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GO34" t="s">
-        <v>783</v>
-      </c>
-      <c r="GP34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GQ34" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="GR34" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="GS34" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="35" spans="1:201" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+      <c r="GT34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GU34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GV34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GY34" t="s">
+        <v>860</v>
+      </c>
+      <c r="GZ34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HA34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HB34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HC34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HD34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HF34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HG34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HH34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HI34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HJ34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HK34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HL34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HN34" t="s">
+        <v>863</v>
+      </c>
+      <c r="HO34" t="s">
+        <v>860</v>
+      </c>
+      <c r="HP34" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="36" spans="1:201" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C36" t="s">
-        <v>774</v>
-      </c>
-      <c r="D36" t="s">
-        <v>775</v>
-      </c>
-      <c r="E36" t="s">
-        <v>776</v>
-      </c>
-      <c r="F36" t="s">
-        <v>777</v>
-      </c>
-      <c r="M36" t="s">
-        <v>774</v>
-      </c>
-      <c r="S36" t="s">
-        <v>792</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>777</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>776</v>
-      </c>
-      <c r="BG36" t="s">
-        <v>775</v>
-      </c>
-      <c r="DB36" t="s">
-        <v>777</v>
+      <c r="BY36" t="s">
+        <v>850</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>850</v>
+      </c>
+      <c r="CV36" t="s">
+        <v>857</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>850</v>
       </c>
       <c r="ED36" t="s">
-        <v>776</v>
-      </c>
-      <c r="EE36" t="s">
-        <v>776</v>
-      </c>
-      <c r="GI36" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:201" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+      <c r="EK36" t="s">
+        <v>850</v>
+      </c>
+      <c r="EL36" t="s">
+        <v>850</v>
+      </c>
+      <c r="GW36" t="s">
+        <v>850</v>
+      </c>
+      <c r="GX36" t="s">
+        <v>850</v>
+      </c>
+      <c r="HE36" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="BM37" t="s">
-        <v>830</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>830</v>
-      </c>
-      <c r="BU37" t="s">
-        <v>830</v>
-      </c>
-      <c r="CH37" t="s">
-        <v>777</v>
-      </c>
-      <c r="CO37" t="s">
-        <v>830</v>
-      </c>
-      <c r="DO37" t="s">
-        <v>830</v>
-      </c>
-      <c r="DV37" t="s">
-        <v>830</v>
-      </c>
-      <c r="DW37" t="s">
-        <v>830</v>
-      </c>
-      <c r="GA37" t="s">
-        <v>830</v>
-      </c>
-      <c r="GB37" t="s">
-        <v>830</v>
-      </c>
-      <c r="GI37" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="38" spans="1:201" x14ac:dyDescent="0.3">
+      <c r="ES37" t="s">
+        <v>958</v>
+      </c>
+      <c r="ET37" t="s">
+        <v>958</v>
+      </c>
+      <c r="EU37" t="s">
+        <v>958</v>
+      </c>
+      <c r="EV37" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:224" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>842</v>
+      </c>
+      <c r="E38" t="s">
+        <v>842</v>
+      </c>
+      <c r="F38" t="s">
+        <v>842</v>
+      </c>
+      <c r="G38" t="s">
+        <v>842</v>
+      </c>
+      <c r="H38" t="s">
+        <v>842</v>
+      </c>
+      <c r="I38" t="s">
+        <v>842</v>
+      </c>
+      <c r="J38" t="s">
+        <v>842</v>
+      </c>
+      <c r="K38" t="s">
+        <v>842</v>
+      </c>
+      <c r="L38" t="s">
+        <v>842</v>
+      </c>
+      <c r="M38" t="s">
+        <v>842</v>
+      </c>
+      <c r="N38" t="s">
+        <v>842</v>
+      </c>
+      <c r="O38" t="s">
+        <v>842</v>
+      </c>
+      <c r="ES38" t="s">
+        <v>842</v>
+      </c>
+      <c r="ET38" t="s">
+        <v>842</v>
+      </c>
+      <c r="EU38" t="s">
+        <v>842</v>
+      </c>
+      <c r="EV38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D39" t="s">
+        <v>843</v>
+      </c>
+      <c r="E39" t="s">
+        <v>843</v>
+      </c>
+      <c r="F39" t="s">
+        <v>843</v>
+      </c>
+      <c r="G39" t="s">
+        <v>843</v>
+      </c>
+      <c r="H39" t="s">
+        <v>843</v>
+      </c>
+      <c r="I39" t="s">
+        <v>843</v>
+      </c>
+      <c r="J39" t="s">
+        <v>843</v>
+      </c>
+      <c r="K39" t="s">
+        <v>843</v>
+      </c>
+      <c r="L39" t="s">
+        <v>843</v>
+      </c>
+      <c r="M39" t="s">
+        <v>843</v>
+      </c>
+      <c r="N39" t="s">
+        <v>843</v>
+      </c>
+      <c r="O39" t="s">
+        <v>843</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>843</v>
+      </c>
+      <c r="ES39" t="s">
+        <v>843</v>
+      </c>
+      <c r="ET39" t="s">
+        <v>843</v>
+      </c>
+      <c r="EU39" t="s">
+        <v>843</v>
+      </c>
+      <c r="EV39" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="AS38" t="s">
-        <v>773</v>
-      </c>
-      <c r="AT38" t="s">
+      <c r="B40" t="s">
+        <v>828</v>
+      </c>
+      <c r="C40" t="s">
+        <v>841</v>
+      </c>
+      <c r="D40" t="s">
+        <v>844</v>
+      </c>
+      <c r="E40" t="s">
+        <v>844</v>
+      </c>
+      <c r="F40" t="s">
+        <v>840</v>
+      </c>
+      <c r="G40" t="s">
+        <v>840</v>
+      </c>
+      <c r="H40" t="s">
+        <v>840</v>
+      </c>
+      <c r="I40" t="s">
+        <v>844</v>
+      </c>
+      <c r="J40" t="s">
+        <v>844</v>
+      </c>
+      <c r="K40" t="s">
+        <v>844</v>
+      </c>
+      <c r="L40" t="s">
+        <v>840</v>
+      </c>
+      <c r="M40" t="s">
+        <v>840</v>
+      </c>
+      <c r="N40" t="s">
+        <v>840</v>
+      </c>
+      <c r="O40" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>888</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>828</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>882</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>909</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>841</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>841</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>841</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>841</v>
+      </c>
+      <c r="CP40" t="s">
+        <v>828</v>
+      </c>
+      <c r="ED40" t="s">
+        <v>828</v>
+      </c>
+      <c r="ES40" t="s">
+        <v>841</v>
+      </c>
+      <c r="ET40" t="s">
+        <v>841</v>
+      </c>
+      <c r="EU40" t="s">
+        <v>841</v>
+      </c>
+      <c r="EV40" t="s">
+        <v>841</v>
+      </c>
+      <c r="FO40" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D41" t="s">
+        <v>845</v>
+      </c>
+      <c r="E41" t="s">
+        <v>845</v>
+      </c>
+      <c r="F41" t="s">
+        <v>845</v>
+      </c>
+      <c r="G41" t="s">
+        <v>845</v>
+      </c>
+      <c r="H41" t="s">
+        <v>845</v>
+      </c>
+      <c r="I41" t="s">
+        <v>845</v>
+      </c>
+      <c r="J41" t="s">
+        <v>845</v>
+      </c>
+      <c r="K41" t="s">
+        <v>845</v>
+      </c>
+      <c r="L41" t="s">
+        <v>845</v>
+      </c>
+      <c r="M41" t="s">
+        <v>845</v>
+      </c>
+      <c r="N41" t="s">
+        <v>845</v>
+      </c>
+      <c r="O41" t="s">
+        <v>845</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>845</v>
+      </c>
+      <c r="ES41" t="s">
+        <v>845</v>
+      </c>
+      <c r="ET41" t="s">
+        <v>845</v>
+      </c>
+      <c r="EU41" t="s">
+        <v>845</v>
+      </c>
+      <c r="EV41" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>879</v>
+      </c>
+      <c r="FO42" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="44" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D44" t="s">
+        <v>845</v>
+      </c>
+      <c r="E44" t="s">
+        <v>849</v>
+      </c>
+      <c r="F44" t="s">
+        <v>845</v>
+      </c>
+      <c r="G44" t="s">
+        <v>857</v>
+      </c>
+      <c r="H44" t="s">
+        <v>849</v>
+      </c>
+      <c r="I44" t="s">
+        <v>845</v>
+      </c>
+      <c r="J44" t="s">
+        <v>857</v>
+      </c>
+      <c r="K44" t="s">
+        <v>849</v>
+      </c>
+      <c r="L44" t="s">
+        <v>845</v>
+      </c>
+      <c r="M44" t="s">
+        <v>857</v>
+      </c>
+      <c r="N44" t="s">
+        <v>849</v>
+      </c>
+      <c r="O44" t="s">
+        <v>857</v>
+      </c>
+      <c r="V44" t="s">
+        <v>845</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>848</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>857</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>849</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>849</v>
+      </c>
+      <c r="DQ44" t="s">
+        <v>857</v>
+      </c>
+      <c r="HE44" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:224" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="49" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D49" t="s">
+        <v>846</v>
+      </c>
+      <c r="E49" t="s">
+        <v>846</v>
+      </c>
+      <c r="F49" t="s">
+        <v>846</v>
+      </c>
+      <c r="G49" t="s">
+        <v>846</v>
+      </c>
+      <c r="H49" t="s">
+        <v>846</v>
+      </c>
+      <c r="I49" t="s">
+        <v>846</v>
+      </c>
+      <c r="J49" t="s">
+        <v>846</v>
+      </c>
+      <c r="K49" t="s">
+        <v>846</v>
+      </c>
+      <c r="L49" t="s">
+        <v>846</v>
+      </c>
+      <c r="M49" t="s">
+        <v>846</v>
+      </c>
+      <c r="N49" t="s">
+        <v>846</v>
+      </c>
+      <c r="O49" t="s">
+        <v>846</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="51" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B51" t="s">
+        <v>829</v>
+      </c>
+      <c r="C51" t="s">
+        <v>829</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>830</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>902</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B53" t="s">
+        <v>830</v>
+      </c>
+      <c r="C53" t="s">
+        <v>830</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="54" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B54" t="s">
+        <v>831</v>
+      </c>
+      <c r="C54" t="s">
+        <v>831</v>
+      </c>
+      <c r="BK54" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="55" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="BK55" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>894</v>
+      </c>
+      <c r="BS56" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="BR57" t="s">
+        <v>919</v>
+      </c>
+      <c r="BS57" t="s">
+        <v>919</v>
+      </c>
+      <c r="GI57" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D58" t="s">
+        <v>847</v>
+      </c>
+      <c r="E58" t="s">
+        <v>847</v>
+      </c>
+      <c r="F58" t="s">
+        <v>847</v>
+      </c>
+      <c r="G58" t="s">
+        <v>847</v>
+      </c>
+      <c r="H58" t="s">
+        <v>847</v>
+      </c>
+      <c r="I58" t="s">
+        <v>847</v>
+      </c>
+      <c r="J58" t="s">
+        <v>847</v>
+      </c>
+      <c r="K58" t="s">
+        <v>847</v>
+      </c>
+      <c r="L58" t="s">
+        <v>847</v>
+      </c>
+      <c r="M58" t="s">
+        <v>847</v>
+      </c>
+      <c r="N58" t="s">
+        <v>847</v>
+      </c>
+      <c r="O58" t="s">
+        <v>847</v>
+      </c>
+      <c r="V58" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>874</v>
+      </c>
+      <c r="FV58" t="s">
+        <v>975</v>
+      </c>
+      <c r="GP58" t="s">
+        <v>847</v>
+      </c>
+      <c r="HM58" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D59" t="s">
+        <v>848</v>
+      </c>
+      <c r="E59" t="s">
+        <v>848</v>
+      </c>
+      <c r="F59" t="s">
+        <v>848</v>
+      </c>
+      <c r="G59" t="s">
+        <v>848</v>
+      </c>
+      <c r="H59" t="s">
+        <v>848</v>
+      </c>
+      <c r="I59" t="s">
+        <v>848</v>
+      </c>
+      <c r="J59" t="s">
+        <v>848</v>
+      </c>
+      <c r="K59" t="s">
+        <v>848</v>
+      </c>
+      <c r="L59" t="s">
+        <v>848</v>
+      </c>
+      <c r="M59" t="s">
+        <v>848</v>
+      </c>
+      <c r="N59" t="s">
+        <v>848</v>
+      </c>
+      <c r="O59" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="60" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D60" t="s">
+        <v>849</v>
+      </c>
+      <c r="E60" t="s">
+        <v>849</v>
+      </c>
+      <c r="F60" t="s">
+        <v>849</v>
+      </c>
+      <c r="G60" t="s">
+        <v>849</v>
+      </c>
+      <c r="H60" t="s">
+        <v>849</v>
+      </c>
+      <c r="I60" t="s">
+        <v>849</v>
+      </c>
+      <c r="J60" t="s">
+        <v>849</v>
+      </c>
+      <c r="K60" t="s">
+        <v>849</v>
+      </c>
+      <c r="L60" t="s">
+        <v>849</v>
+      </c>
+      <c r="M60" t="s">
+        <v>849</v>
+      </c>
+      <c r="N60" t="s">
+        <v>849</v>
+      </c>
+      <c r="O60" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D61" t="s">
+        <v>850</v>
+      </c>
+      <c r="E61" t="s">
+        <v>850</v>
+      </c>
+      <c r="F61" t="s">
+        <v>850</v>
+      </c>
+      <c r="G61" t="s">
+        <v>850</v>
+      </c>
+      <c r="H61" t="s">
+        <v>850</v>
+      </c>
+      <c r="I61" t="s">
+        <v>850</v>
+      </c>
+      <c r="J61" t="s">
+        <v>850</v>
+      </c>
+      <c r="K61" t="s">
+        <v>850</v>
+      </c>
+      <c r="L61" t="s">
+        <v>850</v>
+      </c>
+      <c r="M61" t="s">
+        <v>850</v>
+      </c>
+      <c r="N61" t="s">
+        <v>850</v>
+      </c>
+      <c r="O61" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D62" t="s">
+        <v>849</v>
+      </c>
+      <c r="E62" t="s">
+        <v>849</v>
+      </c>
+      <c r="F62" t="s">
+        <v>849</v>
+      </c>
+      <c r="G62" t="s">
+        <v>849</v>
+      </c>
+      <c r="H62" t="s">
+        <v>849</v>
+      </c>
+      <c r="I62" t="s">
+        <v>849</v>
+      </c>
+      <c r="J62" t="s">
+        <v>849</v>
+      </c>
+      <c r="K62" t="s">
+        <v>849</v>
+      </c>
+      <c r="L62" t="s">
+        <v>849</v>
+      </c>
+      <c r="M62" t="s">
+        <v>849</v>
+      </c>
+      <c r="N62" t="s">
+        <v>849</v>
+      </c>
+      <c r="O62" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="63" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D63" t="s">
+        <v>851</v>
+      </c>
+      <c r="E63" t="s">
+        <v>851</v>
+      </c>
+      <c r="F63" t="s">
+        <v>851</v>
+      </c>
+      <c r="G63" t="s">
+        <v>851</v>
+      </c>
+      <c r="H63" t="s">
+        <v>851</v>
+      </c>
+      <c r="I63" t="s">
+        <v>851</v>
+      </c>
+      <c r="J63" t="s">
+        <v>851</v>
+      </c>
+      <c r="K63" t="s">
+        <v>851</v>
+      </c>
+      <c r="L63" t="s">
+        <v>851</v>
+      </c>
+      <c r="M63" t="s">
+        <v>851</v>
+      </c>
+      <c r="N63" t="s">
+        <v>851</v>
+      </c>
+      <c r="O63" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:221" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D64" t="s">
+        <v>852</v>
+      </c>
+      <c r="E64" t="s">
+        <v>852</v>
+      </c>
+      <c r="F64" t="s">
+        <v>852</v>
+      </c>
+      <c r="G64" t="s">
+        <v>852</v>
+      </c>
+      <c r="H64" t="s">
+        <v>852</v>
+      </c>
+      <c r="I64" t="s">
+        <v>852</v>
+      </c>
+      <c r="J64" t="s">
+        <v>852</v>
+      </c>
+      <c r="K64" t="s">
+        <v>852</v>
+      </c>
+      <c r="L64" t="s">
+        <v>852</v>
+      </c>
+      <c r="M64" t="s">
+        <v>852</v>
+      </c>
+      <c r="N64" t="s">
+        <v>852</v>
+      </c>
+      <c r="O64" t="s">
+        <v>852</v>
+      </c>
+      <c r="CI64" t="s">
+        <v>830</v>
+      </c>
+      <c r="DJ64" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="65" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D65" t="s">
+        <v>853</v>
+      </c>
+      <c r="E65" t="s">
+        <v>853</v>
+      </c>
+      <c r="F65" t="s">
+        <v>853</v>
+      </c>
+      <c r="G65" t="s">
+        <v>853</v>
+      </c>
+      <c r="H65" t="s">
+        <v>853</v>
+      </c>
+      <c r="I65" t="s">
+        <v>853</v>
+      </c>
+      <c r="J65" t="s">
+        <v>853</v>
+      </c>
+      <c r="K65" t="s">
+        <v>853</v>
+      </c>
+      <c r="L65" t="s">
+        <v>853</v>
+      </c>
+      <c r="M65" t="s">
+        <v>853</v>
+      </c>
+      <c r="N65" t="s">
+        <v>853</v>
+      </c>
+      <c r="O65" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="66" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D66" t="s">
+        <v>854</v>
+      </c>
+      <c r="E66" t="s">
+        <v>854</v>
+      </c>
+      <c r="F66" t="s">
+        <v>854</v>
+      </c>
+      <c r="G66" t="s">
+        <v>854</v>
+      </c>
+      <c r="H66" t="s">
+        <v>854</v>
+      </c>
+      <c r="I66" t="s">
+        <v>854</v>
+      </c>
+      <c r="J66" t="s">
+        <v>854</v>
+      </c>
+      <c r="K66" t="s">
+        <v>854</v>
+      </c>
+      <c r="L66" t="s">
+        <v>854</v>
+      </c>
+      <c r="M66" t="s">
+        <v>854</v>
+      </c>
+      <c r="N66" t="s">
+        <v>854</v>
+      </c>
+      <c r="O66" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="67" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="V67" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="68" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="V68" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B70" t="s">
+        <v>832</v>
+      </c>
+      <c r="C70" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B71" t="s">
+        <v>833</v>
+      </c>
+      <c r="C71" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B72" t="s">
+        <v>834</v>
+      </c>
+      <c r="C72" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B73" t="s">
+        <v>835</v>
+      </c>
+      <c r="C73" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B74" t="s">
+        <v>836</v>
+      </c>
+      <c r="C74" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="75" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B75" t="s">
+        <v>837</v>
+      </c>
+      <c r="C75" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B76" t="s">
+        <v>838</v>
+      </c>
+      <c r="C76" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="77" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B77" t="s">
+        <v>839</v>
+      </c>
+      <c r="C77" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B78" t="s">
+        <v>840</v>
+      </c>
+      <c r="C78" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="CB38" t="s">
-        <v>773</v>
-      </c>
-      <c r="DO38" t="s">
-        <v>773</v>
-      </c>
-      <c r="EV38" t="s">
-        <v>773</v>
+      <c r="D79" t="s">
+        <v>855</v>
+      </c>
+      <c r="E79" t="s">
+        <v>855</v>
+      </c>
+      <c r="F79" t="s">
+        <v>855</v>
+      </c>
+      <c r="G79" t="s">
+        <v>855</v>
+      </c>
+      <c r="H79" t="s">
+        <v>855</v>
+      </c>
+      <c r="I79" t="s">
+        <v>855</v>
+      </c>
+      <c r="J79" t="s">
+        <v>855</v>
+      </c>
+      <c r="K79" t="s">
+        <v>855</v>
+      </c>
+      <c r="L79" t="s">
+        <v>855</v>
+      </c>
+      <c r="M79" t="s">
+        <v>855</v>
+      </c>
+      <c r="N79" t="s">
+        <v>855</v>
+      </c>
+      <c r="O79" t="s">
+        <v>855</v>
+      </c>
+      <c r="HE79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:213" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D80" t="s">
+        <v>856</v>
+      </c>
+      <c r="E80" t="s">
+        <v>856</v>
+      </c>
+      <c r="F80" t="s">
+        <v>856</v>
+      </c>
+      <c r="G80" t="s">
+        <v>856</v>
+      </c>
+      <c r="H80" t="s">
+        <v>856</v>
+      </c>
+      <c r="I80" t="s">
+        <v>856</v>
+      </c>
+      <c r="J80" t="s">
+        <v>856</v>
+      </c>
+      <c r="K80" t="s">
+        <v>856</v>
+      </c>
+      <c r="L80" t="s">
+        <v>856</v>
+      </c>
+      <c r="M80" t="s">
+        <v>856</v>
+      </c>
+      <c r="N80" t="s">
+        <v>856</v>
+      </c>
+      <c r="O80" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="81" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="FB81" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="82" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="FB82" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="83" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="FG83" t="s">
+        <v>963</v>
+      </c>
+      <c r="FH83" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="FG84" t="s">
+        <v>849</v>
+      </c>
+      <c r="FH84" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="FO85" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="86" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="FO86" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="87" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="GC87" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="88" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="GI88" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="89" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="BY89" t="s">
+        <v>836</v>
+      </c>
+      <c r="BZ89" t="s">
+        <v>836</v>
+      </c>
+      <c r="CA89" t="s">
+        <v>836</v>
+      </c>
+      <c r="CB89" t="s">
+        <v>836</v>
+      </c>
+      <c r="GI89" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="GP90" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="GP91" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="BY92" t="s">
+        <v>924</v>
+      </c>
+      <c r="BZ92" t="s">
+        <v>924</v>
+      </c>
+      <c r="CA92" t="s">
+        <v>924</v>
+      </c>
+      <c r="CB92" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="93" spans="1:198" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="DQ93" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
